--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G2" t="n">
         <v>0.7142857142857143</v>
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -651,7 +651,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.982967</t>
+          <t>2025-10-16T12:16:33.190466</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G3" t="n">
         <v>0.7142857142857143</v>
@@ -741,7 +741,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.982967</t>
+          <t>2025-10-16T12:16:33.190466</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G4" t="n">
         <v>0.7142857142857143</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.983966</t>
+          <t>2025-10-16T12:16:33.190466</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G5" t="n">
         <v>0.7142857142857143</v>
@@ -929,7 +929,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.984536</t>
+          <t>2025-10-16T12:16:33.191467</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G6" t="n">
         <v>0.7142857142857143</v>
@@ -969,7 +969,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L6" t="n">
         <v>0.9852281360342515</v>
@@ -1019,7 +1019,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.984536</t>
+          <t>2025-10-16T12:16:33.191467</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G7" t="n">
         <v>0.7142857142857143</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.985052</t>
+          <t>2025-10-16T12:16:33.191467</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G8" t="n">
         <v>0.7142857142857143</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.985052</t>
+          <t>2025-10-16T12:16:33.191467</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G9" t="n">
         <v>0.7142857142857143</v>
@@ -1247,7 +1247,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L9" t="n">
         <v>0.5916727785823274</v>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.985052</t>
+          <t>2025-10-16T12:16:33.191467</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G10" t="n">
         <v>0.7142857142857143</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.985052</t>
+          <t>2025-10-16T12:16:33.191467</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G11" t="n">
         <v>0.7142857142857143</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.986066</t>
+          <t>2025-10-16T12:16:33.191467</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G12" t="n">
         <v>0.7142857142857143</v>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.986066</t>
+          <t>2025-10-16T12:16:33.191467</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G13" t="n">
         <v>0.7142857142857143</v>
@@ -1673,7 +1673,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.986066</t>
+          <t>2025-10-16T12:16:33.191467</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G14" t="n">
         <v>0.7142857142857143</v>
@@ -1713,7 +1713,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L14" t="n">
         <v>0.8631205685666311</v>
@@ -1763,7 +1763,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.986066</t>
+          <t>2025-10-16T12:16:33.191467</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G15" t="n">
         <v>0.7142857142857143</v>
@@ -1803,7 +1803,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L15" t="n">
         <v>0.5916727785823274</v>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.986066</t>
+          <t>2025-10-16T12:16:33.192466</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G16" t="n">
         <v>0.7142857142857143</v>
@@ -1897,7 +1897,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L16" t="n">
         <v>0.5916727785823274</v>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.986066</t>
+          <t>2025-10-16T12:16:33.192466</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G17" t="n">
         <v>0.7142857142857143</v>
@@ -1991,7 +1991,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17" t="n">
         <v>0.5916727785823274</v>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.986066</t>
+          <t>2025-10-16T12:16:33.192466</t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G18" t="n">
         <v>0.7142857142857143</v>
@@ -2085,7 +2085,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18" t="n">
         <v>0.5916727785823274</v>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.986066</t>
+          <t>2025-10-16T12:16:33.192466</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2162,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G19" t="n">
         <v>0.7142857142857143</v>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.987064</t>
+          <t>2025-10-16T12:16:33.192466</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G20" t="n">
         <v>0.7142857142857143</v>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.987064</t>
+          <t>2025-10-16T12:16:33.192466</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G21" t="n">
         <v>0.7142857142857143</v>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.987064</t>
+          <t>2025-10-16T12:16:33.192466</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G22" t="n">
         <v>0.7142857142857143</v>
@@ -2461,7 +2461,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22" t="n">
         <v>0.9852281360342515</v>
@@ -2511,7 +2511,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.987064</t>
+          <t>2025-10-16T12:16:33.192466</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G23" t="n">
         <v>0.7142857142857143</v>
@@ -2551,7 +2551,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23" t="n">
         <v>0.5916727785823274</v>
@@ -2601,7 +2601,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.987064</t>
+          <t>2025-10-16T12:16:33.192466</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G24" t="n">
         <v>0.7142857142857143</v>
@@ -2691,7 +2691,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.987064</t>
+          <t>2025-10-16T12:16:33.193465</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G25" t="n">
         <v>0.7142857142857143</v>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.987064</t>
+          <t>2025-10-16T12:16:33.193465</t>
         </is>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G26" t="n">
         <v>0.7142857142857143</v>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.987064</t>
+          <t>2025-10-16T12:16:33.193465</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G27" t="n">
         <v>0.7142857142857143</v>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.987064</t>
+          <t>2025-10-16T12:16:33.193465</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G28" t="n">
         <v>0.7142857142857143</v>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.988063</t>
+          <t>2025-10-16T12:16:33.193465</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G29" t="n">
         <v>0.7142857142857143</v>
@@ -3107,7 +3107,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K29" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L29" t="n">
         <v>0.8631205685666311</v>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.988063</t>
+          <t>2025-10-16T12:16:33.193465</t>
         </is>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G30" t="n">
         <v>0.7142857142857143</v>
@@ -3251,7 +3251,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.988063</t>
+          <t>2025-10-16T12:16:33.193465</t>
         </is>
       </c>
     </row>
@@ -3274,7 +3274,7 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G31" t="n">
         <v>0.7142857142857143</v>
@@ -3291,7 +3291,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L31" t="n">
         <v>0.8631205685666311</v>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.988063</t>
+          <t>2025-10-16T12:16:33.193465</t>
         </is>
       </c>
     </row>
@@ -3368,7 +3368,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G32" t="n">
         <v>0.7142857142857143</v>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.988063</t>
+          <t>2025-10-16T12:16:33.193465</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G33" t="n">
         <v>0.7142857142857143</v>
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3529,7 +3529,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.988063</t>
+          <t>2025-10-16T12:16:33.194465</t>
         </is>
       </c>
     </row>
@@ -3552,7 +3552,7 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G34" t="n">
         <v>0.7142857142857143</v>
@@ -3569,7 +3569,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L34" t="n">
         <v>0.5916727785823274</v>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.988063</t>
+          <t>2025-10-16T12:16:33.194465</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G35" t="n">
         <v>0.7142857142857143</v>
@@ -3713,7 +3713,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.988063</t>
+          <t>2025-10-16T12:16:33.194465</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G36" t="n">
         <v>0.7142857142857143</v>
@@ -3753,7 +3753,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L36" t="n">
         <v>0.5916727785823274</v>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.988063</t>
+          <t>2025-10-16T12:16:33.194465</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G37" t="n">
         <v>0.7142857142857143</v>
@@ -3897,7 +3897,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.988063</t>
+          <t>2025-10-16T12:16:33.194465</t>
         </is>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G38" t="n">
         <v>0.7142857142857143</v>
@@ -3987,7 +3987,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.989063</t>
+          <t>2025-10-16T12:16:33.194465</t>
         </is>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G39" t="n">
         <v>0.7142857142857143</v>
@@ -4077,7 +4077,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.989063</t>
+          <t>2025-10-16T12:16:33.194465</t>
         </is>
       </c>
     </row>
@@ -4100,7 +4100,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G40" t="n">
         <v>0.7142857142857143</v>
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4167,7 +4167,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.989063</t>
+          <t>2025-10-16T12:16:33.194465</t>
         </is>
       </c>
     </row>
@@ -4190,7 +4190,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G41" t="n">
         <v>0.7142857142857143</v>
@@ -4207,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.989063</t>
+          <t>2025-10-16T12:16:33.194465</t>
         </is>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G42" t="n">
         <v>0.7142857142857143</v>
@@ -4351,7 +4351,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.989063</t>
+          <t>2025-10-16T12:16:33.194465</t>
         </is>
       </c>
     </row>
@@ -4374,7 +4374,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G43" t="n">
         <v>0.7142857142857143</v>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.989063</t>
+          <t>2025-10-16T12:16:33.194465</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4468,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>1.016446254662153</v>
+        <v>1.003422150882347</v>
       </c>
       <c r="G44" t="n">
         <v>0.7142857142857143</v>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:00.989063</t>
+          <t>2025-10-16T12:16:33.195465</t>
         </is>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>0.7142857142857143</v>
@@ -4579,7 +4579,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L45" t="n">
         <v>0.5916727785823274</v>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.072587</t>
+          <t>2025-10-16T12:16:33.254652</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>0.7142857142857143</v>
@@ -4673,7 +4673,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K46" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L46" t="n">
         <v>0.8631205685666311</v>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.072587</t>
+          <t>2025-10-16T12:16:33.254652</t>
         </is>
       </c>
     </row>
@@ -4750,7 +4750,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>0.7142857142857143</v>
@@ -4767,7 +4767,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L47" t="n">
         <v>0.8631205685666311</v>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.072587</t>
+          <t>2025-10-16T12:16:33.254652</t>
         </is>
       </c>
     </row>
@@ -4844,7 +4844,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>0.7142857142857143</v>
@@ -4861,7 +4861,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="n">
         <v>0.8631205685666311</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.072587</t>
+          <t>2025-10-16T12:16:33.254652</t>
         </is>
       </c>
     </row>
@@ -4938,7 +4938,7 @@
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>0.7142857142857143</v>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.073591</t>
+          <t>2025-10-16T12:16:33.254652</t>
         </is>
       </c>
     </row>
@@ -5032,7 +5032,7 @@
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>0.7142857142857143</v>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.073591</t>
+          <t>2025-10-16T12:16:33.254652</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>0.7142857142857143</v>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.073591</t>
+          <t>2025-10-16T12:16:33.254652</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>0.7142857142857143</v>
@@ -5287,7 +5287,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.073591</t>
+          <t>2025-10-16T12:16:33.255652</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>0.7142857142857143</v>
@@ -5327,7 +5327,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K53" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L53" t="n">
         <v>0.8631205685666311</v>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.073591</t>
+          <t>2025-10-16T12:16:33.255652</t>
         </is>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
         <v>0.7142857142857143</v>
@@ -5421,7 +5421,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L54" t="n">
         <v>0.8631205685666311</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.074590</t>
+          <t>2025-10-16T12:16:33.255652</t>
         </is>
       </c>
     </row>
@@ -5498,7 +5498,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>0.7142857142857143</v>
@@ -5515,7 +5515,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L55" t="n">
         <v>0.5916727785823274</v>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.074590</t>
+          <t>2025-10-16T12:16:33.255652</t>
         </is>
       </c>
     </row>
@@ -5592,7 +5592,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>0.7142857142857143</v>
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.074590</t>
+          <t>2025-10-16T12:16:33.255652</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5686,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>0.7142857142857143</v>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.074590</t>
+          <t>2025-10-16T12:16:33.255652</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>0.7142857142857143</v>
@@ -5847,7 +5847,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.074590</t>
+          <t>2025-10-16T12:16:33.255652</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5870,7 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>0.7142857142857143</v>
@@ -5887,7 +5887,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L59" t="n">
         <v>0.8631205685666311</v>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.074590</t>
+          <t>2025-10-16T12:16:33.255652</t>
         </is>
       </c>
     </row>
@@ -5964,7 +5964,7 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>0.7142857142857143</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.074590</t>
+          <t>2025-10-16T12:16:33.255652</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6058,7 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>0.7142857142857143</v>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.074590</t>
+          <t>2025-10-16T12:16:33.255652</t>
         </is>
       </c>
     </row>
@@ -6152,7 +6152,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>0.7142857142857143</v>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.074590</t>
+          <t>2025-10-16T12:16:33.255652</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>0.7142857142857143</v>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.075591</t>
+          <t>2025-10-16T12:16:33.256651</t>
         </is>
       </c>
     </row>
@@ -6340,7 +6340,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
         <v>0.7142857142857143</v>
@@ -6407,7 +6407,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.075591</t>
+          <t>2025-10-16T12:16:33.256651</t>
         </is>
       </c>
     </row>
@@ -6430,7 +6430,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>0.7142857142857143</v>
@@ -6447,7 +6447,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K65" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L65" t="n">
         <v>0.8631205685666311</v>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.075591</t>
+          <t>2025-10-16T12:16:33.256651</t>
         </is>
       </c>
     </row>
@@ -6524,7 +6524,7 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v>0.7142857142857143</v>
@@ -6541,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -6595,7 +6595,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.075591</t>
+          <t>2025-10-16T12:16:33.256651</t>
         </is>
       </c>
     </row>
@@ -6618,7 +6618,7 @@
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>0.7142857142857143</v>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.075591</t>
+          <t>2025-10-16T12:16:33.256651</t>
         </is>
       </c>
     </row>
@@ -6712,7 +6712,7 @@
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>0.7142857142857143</v>
@@ -6729,7 +6729,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K68" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L68" t="n">
         <v>0.8631205685666311</v>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.075591</t>
+          <t>2025-10-16T12:16:33.256651</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>0.7142857142857143</v>
@@ -6823,7 +6823,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K69" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L69" t="n">
         <v>0.8631205685666311</v>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.075591</t>
+          <t>2025-10-16T12:16:33.256651</t>
         </is>
       </c>
     </row>
@@ -6900,7 +6900,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>0.7142857142857143</v>
@@ -6917,7 +6917,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L70" t="n">
         <v>0.8631205685666311</v>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.075591</t>
+          <t>2025-10-16T12:16:33.256651</t>
         </is>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>0.7142857142857143</v>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.075591</t>
+          <t>2025-10-16T12:16:33.256651</t>
         </is>
       </c>
     </row>
@@ -7088,7 +7088,7 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>1.027657722129251</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>0.7142857142857143</v>
@@ -7105,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.076588</t>
+          <t>2025-10-16T12:16:33.257650</t>
         </is>
       </c>
     </row>
@@ -7182,7 +7182,7 @@
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G73" t="n">
         <v>0.7142857142857143</v>
@@ -7199,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.161012</t>
+          <t>2025-10-16T12:16:33.324040</t>
         </is>
       </c>
     </row>
@@ -7276,7 +7276,7 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G74" t="n">
         <v>0.7142857142857143</v>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.161012</t>
+          <t>2025-10-16T12:16:33.324040</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G75" t="n">
         <v>0.7142857142857143</v>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.161012</t>
+          <t>2025-10-16T12:16:33.324040</t>
         </is>
       </c>
     </row>
@@ -7464,7 +7464,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G76" t="n">
         <v>0.7142857142857143</v>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.161012</t>
+          <t>2025-10-16T12:16:33.324040</t>
         </is>
       </c>
     </row>
@@ -7558,7 +7558,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G77" t="n">
         <v>0.7142857142857143</v>
@@ -7575,7 +7575,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L77" t="n">
         <v>0.8631205685666311</v>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.161012</t>
+          <t>2025-10-16T12:16:33.325045</t>
         </is>
       </c>
     </row>
@@ -7652,7 +7652,7 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G78" t="n">
         <v>0.7142857142857143</v>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.161012</t>
+          <t>2025-10-16T12:16:33.325045</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G79" t="n">
         <v>0.7142857142857143</v>
@@ -7763,7 +7763,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L79" t="n">
         <v>0.9852281360342515</v>
@@ -7813,7 +7813,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.161012</t>
+          <t>2025-10-16T12:16:33.325045</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7836,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G80" t="n">
         <v>0.7142857142857143</v>
@@ -7853,7 +7853,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L80" t="n">
         <v>0.8631205685666311</v>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.161012</t>
+          <t>2025-10-16T12:16:33.325045</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G81" t="n">
         <v>0.7142857142857143</v>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.162013</t>
+          <t>2025-10-16T12:16:33.325045</t>
         </is>
       </c>
     </row>
@@ -8024,7 +8024,7 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G82" t="n">
         <v>0.7142857142857143</v>
@@ -8041,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.162013</t>
+          <t>2025-10-16T12:16:33.325045</t>
         </is>
       </c>
     </row>
@@ -8118,7 +8118,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G83" t="n">
         <v>0.7142857142857143</v>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.162013</t>
+          <t>2025-10-16T12:16:33.325045</t>
         </is>
       </c>
     </row>
@@ -8212,7 +8212,7 @@
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G84" t="n">
         <v>0.7142857142857143</v>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.162013</t>
+          <t>2025-10-16T12:16:33.325045</t>
         </is>
       </c>
     </row>
@@ -8306,7 +8306,7 @@
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G85" t="n">
         <v>0.7142857142857143</v>
@@ -8323,7 +8323,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K85" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L85" t="n">
         <v>0.8631205685666311</v>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.162013</t>
+          <t>2025-10-16T12:16:33.326041</t>
         </is>
       </c>
     </row>
@@ -8400,7 +8400,7 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G86" t="n">
         <v>0.7142857142857143</v>
@@ -8417,7 +8417,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.162013</t>
+          <t>2025-10-16T12:16:33.326041</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G87" t="n">
         <v>0.7142857142857143</v>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.162013</t>
+          <t>2025-10-16T12:16:33.326041</t>
         </is>
       </c>
     </row>
@@ -8588,7 +8588,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G88" t="n">
         <v>0.7142857142857143</v>
@@ -8605,7 +8605,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K88" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L88" t="n">
         <v>0.8631205685666311</v>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.162013</t>
+          <t>2025-10-16T12:16:33.326041</t>
         </is>
       </c>
     </row>
@@ -8682,7 +8682,7 @@
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G89" t="n">
         <v>0.7142857142857143</v>
@@ -8699,7 +8699,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K89" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L89" t="n">
         <v>0.5916727785823274</v>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.162013</t>
+          <t>2025-10-16T12:16:33.326041</t>
         </is>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G90" t="n">
         <v>0.7142857142857143</v>
@@ -8793,7 +8793,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L90" t="n">
         <v>0.5916727785823274</v>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.162013</t>
+          <t>2025-10-16T12:16:33.326041</t>
         </is>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G91" t="n">
         <v>0.7142857142857143</v>
@@ -8887,7 +8887,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K91" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L91" t="n">
         <v>0.5916727785823274</v>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.163012</t>
+          <t>2025-10-16T12:16:33.326041</t>
         </is>
       </c>
     </row>
@@ -8964,7 +8964,7 @@
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G92" t="n">
         <v>0.7142857142857143</v>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.163012</t>
+          <t>2025-10-16T12:16:33.326041</t>
         </is>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G93" t="n">
         <v>0.7142857142857143</v>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.163012</t>
+          <t>2025-10-16T12:16:33.326041</t>
         </is>
       </c>
     </row>
@@ -9152,7 +9152,7 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G94" t="n">
         <v>0.7142857142857143</v>
@@ -9219,7 +9219,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.163012</t>
+          <t>2025-10-16T12:16:33.326041</t>
         </is>
       </c>
     </row>
@@ -9242,7 +9242,7 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G95" t="n">
         <v>0.7142857142857143</v>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.163012</t>
+          <t>2025-10-16T12:16:33.326041</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9336,7 @@
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G96" t="n">
         <v>0.7142857142857143</v>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.163012</t>
+          <t>2025-10-16T12:16:33.327040</t>
         </is>
       </c>
     </row>
@@ -9430,7 +9430,7 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G97" t="n">
         <v>0.7142857142857143</v>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.164012</t>
+          <t>2025-10-16T12:16:33.327040</t>
         </is>
       </c>
     </row>
@@ -9524,7 +9524,7 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G98" t="n">
         <v>0.7142857142857143</v>
@@ -9591,7 +9591,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.164012</t>
+          <t>2025-10-16T12:16:33.327040</t>
         </is>
       </c>
     </row>
@@ -9614,7 +9614,7 @@
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G99" t="n">
         <v>0.7142857142857143</v>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.164012</t>
+          <t>2025-10-16T12:16:33.327040</t>
         </is>
       </c>
     </row>
@@ -9708,7 +9708,7 @@
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9996036751929119</v>
+        <v>0.9909896598701937</v>
       </c>
       <c r="G100" t="n">
         <v>0.7142857142857143</v>
@@ -9775,7 +9775,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.164012</t>
+          <t>2025-10-16T12:16:33.327040</t>
         </is>
       </c>
     </row>
@@ -9869,7 +9869,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.236088</t>
+          <t>2025-10-16T12:16:33.376677</t>
         </is>
       </c>
     </row>
@@ -9963,7 +9963,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.236088</t>
+          <t>2025-10-16T12:16:33.376677</t>
         </is>
       </c>
     </row>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.236644</t>
+          <t>2025-10-16T12:16:33.377675</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.236644</t>
+          <t>2025-10-16T12:16:33.377675</t>
         </is>
       </c>
     </row>
@@ -10241,7 +10241,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.237158</t>
+          <t>2025-10-16T12:16:33.377675</t>
         </is>
       </c>
     </row>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.237158</t>
+          <t>2025-10-16T12:16:33.377675</t>
         </is>
       </c>
     </row>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.237158</t>
+          <t>2025-10-16T12:16:33.377675</t>
         </is>
       </c>
     </row>
@@ -10523,7 +10523,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.237158</t>
+          <t>2025-10-16T12:16:33.377675</t>
         </is>
       </c>
     </row>
@@ -10617,7 +10617,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.238176</t>
+          <t>2025-10-16T12:16:33.377675</t>
         </is>
       </c>
     </row>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:01.238176</t>
+          <t>2025-10-16T12:16:33.377675</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
@@ -655,7 +655,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.525931</t>
+          <t>2025-10-17T07:09:34.795095</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.525931</t>
+          <t>2025-10-17T07:09:34.796095</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.525931</t>
+          <t>2025-10-17T07:09:34.796095</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.525931</t>
+          <t>2025-10-17T07:09:34.796095</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.526931</t>
+          <t>2025-10-17T07:09:34.796095</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.526931</t>
+          <t>2025-10-17T07:09:34.796095</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.526931</t>
+          <t>2025-10-17T07:09:34.796095</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.526931</t>
+          <t>2025-10-17T07:09:34.796095</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.526931</t>
+          <t>2025-10-17T07:09:34.796095</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.526931</t>
+          <t>2025-10-17T07:09:34.796095</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.527938</t>
+          <t>2025-10-17T07:09:34.796095</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.527938</t>
+          <t>2025-10-17T07:09:34.797095</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.527938</t>
+          <t>2025-10-17T07:09:34.797095</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.527938</t>
+          <t>2025-10-17T07:09:34.797095</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.527938</t>
+          <t>2025-10-17T07:09:34.797095</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.527938</t>
+          <t>2025-10-17T07:09:34.797095</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.527938</t>
+          <t>2025-10-17T07:09:34.797095</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.527938</t>
+          <t>2025-10-17T07:09:34.797095</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.527938</t>
+          <t>2025-10-17T07:09:34.797095</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.527938</t>
+          <t>2025-10-17T07:09:34.797095</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.528936</t>
+          <t>2025-10-17T07:09:34.797095</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.528936</t>
+          <t>2025-10-17T07:09:34.797095</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.528936</t>
+          <t>2025-10-17T07:09:34.798094</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.528936</t>
+          <t>2025-10-17T07:09:34.798094</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.528936</t>
+          <t>2025-10-17T07:09:34.798094</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.528936</t>
+          <t>2025-10-17T07:09:34.798094</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.528936</t>
+          <t>2025-10-17T07:09:34.798094</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.528936</t>
+          <t>2025-10-17T07:09:34.798094</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.528936</t>
+          <t>2025-10-17T07:09:34.798094</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.528936</t>
+          <t>2025-10-17T07:09:34.798094</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.529936</t>
+          <t>2025-10-17T07:09:34.798094</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.529936</t>
+          <t>2025-10-17T07:09:34.798094</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.529936</t>
+          <t>2025-10-17T07:09:34.798094</t>
         </is>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.529936</t>
+          <t>2025-10-17T07:09:34.799094</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.529936</t>
+          <t>2025-10-17T07:09:34.799094</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.529936</t>
+          <t>2025-10-17T07:09:34.799094</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.529936</t>
+          <t>2025-10-17T07:09:34.799094</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4097,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.529936</t>
+          <t>2025-10-17T07:09:34.799094</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.529936</t>
+          <t>2025-10-17T07:09:34.799094</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.529936</t>
+          <t>2025-10-17T07:09:34.799094</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.530936</t>
+          <t>2025-10-17T07:09:34.799094</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.530936</t>
+          <t>2025-10-17T07:09:34.799094</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.530936</t>
+          <t>2025-10-17T07:09:34.799094</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.530936</t>
+          <t>2025-10-17T07:09:34.799094</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.635641</t>
+          <t>2025-10-17T07:09:35.008726</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.637656</t>
+          <t>2025-10-17T07:09:35.008726</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.637656</t>
+          <t>2025-10-17T07:09:35.008726</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.637656</t>
+          <t>2025-10-17T07:09:35.008726</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.638312</t>
+          <t>2025-10-17T07:09:35.008726</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.638828</t>
+          <t>2025-10-17T07:09:35.008726</t>
         </is>
       </c>
     </row>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.638828</t>
+          <t>2025-10-17T07:09:35.008726</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.638828</t>
+          <t>2025-10-17T07:09:35.008726</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.640976</t>
+          <t>2025-10-17T07:09:35.008726</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.641976</t>
+          <t>2025-10-17T07:09:35.008726</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.641976</t>
+          <t>2025-10-17T07:09:35.008726</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.641976</t>
+          <t>2025-10-17T07:09:35.017782</t>
         </is>
       </c>
     </row>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.641976</t>
+          <t>2025-10-17T07:09:35.017782</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.642979</t>
+          <t>2025-10-17T07:09:35.017782</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6067,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.642979</t>
+          <t>2025-10-17T07:09:35.018320</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.642979</t>
+          <t>2025-10-17T07:09:35.018320</t>
         </is>
       </c>
     </row>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.642979</t>
+          <t>2025-10-17T07:09:35.018320</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.643981</t>
+          <t>2025-10-17T07:09:35.018320</t>
         </is>
       </c>
     </row>
@@ -6435,7 +6435,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.643981</t>
+          <t>2025-10-17T07:09:35.018320</t>
         </is>
       </c>
     </row>
@@ -6525,7 +6525,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.643981</t>
+          <t>2025-10-17T07:09:35.018320</t>
         </is>
       </c>
     </row>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.643981</t>
+          <t>2025-10-17T07:09:35.018320</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.643981</t>
+          <t>2025-10-17T07:09:35.018320</t>
         </is>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.645215</t>
+          <t>2025-10-17T07:09:35.018320</t>
         </is>
       </c>
     </row>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.645745</t>
+          <t>2025-10-17T07:09:35.018320</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.645745</t>
+          <t>2025-10-17T07:09:35.018320</t>
         </is>
       </c>
     </row>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.645745</t>
+          <t>2025-10-17T07:09:35.018320</t>
         </is>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.646744</t>
+          <t>2025-10-17T07:09:35.018320</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.646744</t>
+          <t>2025-10-17T07:09:35.018320</t>
         </is>
       </c>
     </row>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.647638</t>
+          <t>2025-10-17T07:09:35.018320</t>
         </is>
       </c>
     </row>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.770715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.770715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.770715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -7747,7 +7747,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.771715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.771715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.771715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.771715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -8119,7 +8119,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.771715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -8213,7 +8213,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.771715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.771715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8397,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.771715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.771715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -8581,7 +8581,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.772715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.772715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.772715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.772715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -8957,7 +8957,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.772715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.772715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.772715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.772715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -9329,7 +9329,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.772715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -9423,7 +9423,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.772715</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.773798</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.773798</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.773798</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.774323</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.774323</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.774323</t>
+          <t>2025-10-17T07:09:35.129414</t>
         </is>
       </c>
     </row>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.859748</t>
+          <t>2025-10-17T07:09:35.208806</t>
         </is>
       </c>
     </row>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.859748</t>
+          <t>2025-10-17T07:09:35.208806</t>
         </is>
       </c>
     </row>
@@ -10265,7 +10265,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.860751</t>
+          <t>2025-10-17T07:09:35.208806</t>
         </is>
       </c>
     </row>
@@ -10355,7 +10355,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.860751</t>
+          <t>2025-10-17T07:09:35.208806</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.860751</t>
+          <t>2025-10-17T07:09:35.208806</t>
         </is>
       </c>
     </row>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.860751</t>
+          <t>2025-10-17T07:09:35.208806</t>
         </is>
       </c>
     </row>
@@ -10637,7 +10637,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.861747</t>
+          <t>2025-10-17T07:09:35.208806</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.861747</t>
+          <t>2025-10-17T07:09:35.208806</t>
         </is>
       </c>
     </row>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.861747</t>
+          <t>2025-10-17T07:09:35.208806</t>
         </is>
       </c>
     </row>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:17.861747</t>
+          <t>2025-10-17T07:09:35.208806</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
@@ -584,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H2" t="n">
         <v>0.9852281360342515</v>
@@ -601,7 +601,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L2" t="n">
         <v>0.9852281360342515</v>
@@ -655,7 +655,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.795095</t>
+          <t>2025-10-19T23:55:58.569779</t>
         </is>
       </c>
     </row>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H3" t="n">
         <v>0.9852281360342515</v>
@@ -695,7 +695,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L3" t="n">
         <v>0.9852281360342515</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.796095</t>
+          <t>2025-10-19T23:55:58.570776</t>
         </is>
       </c>
     </row>
@@ -772,10 +772,10 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>0.9852281360342515</v>
@@ -789,7 +789,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L4" t="n">
         <v>0.5916727785823274</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.796095</t>
+          <t>2025-10-19T23:55:58.570776</t>
         </is>
       </c>
     </row>
@@ -866,10 +866,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H5" t="n">
         <v>0.9852281360342515</v>
@@ -883,7 +883,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L5" t="n">
         <v>0.8631205685666311</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.796095</t>
+          <t>2025-10-19T23:55:58.570776</t>
         </is>
       </c>
     </row>
@@ -960,10 +960,10 @@
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H6" t="n">
         <v>0.9852281360342515</v>
@@ -977,7 +977,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L6" t="n">
         <v>0.5916727785823274</v>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.796095</t>
+          <t>2025-10-19T23:55:58.570776</t>
         </is>
       </c>
     </row>
@@ -1054,10 +1054,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H7" t="n">
         <v>0.9852281360342515</v>
@@ -1071,7 +1071,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L7" t="n">
         <v>0.8631205685666311</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.796095</t>
+          <t>2025-10-19T23:55:58.570776</t>
         </is>
       </c>
     </row>
@@ -1148,10 +1148,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H8" t="n">
         <v>0.9852281360342515</v>
@@ -1165,7 +1165,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L8" t="n">
         <v>0.5916727785823274</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.796095</t>
+          <t>2025-10-19T23:55:58.571777</t>
         </is>
       </c>
     </row>
@@ -1242,10 +1242,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H9" t="n">
         <v>0.9852281360342515</v>
@@ -1259,7 +1259,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L9" t="n">
         <v>0.5916727785823274</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.796095</t>
+          <t>2025-10-19T23:55:58.571777</t>
         </is>
       </c>
     </row>
@@ -1336,10 +1336,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H10" t="n">
         <v>0.9852281360342515</v>
@@ -1353,7 +1353,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L10" t="n">
         <v>0.5916727785823274</v>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.796095</t>
+          <t>2025-10-19T23:55:58.571777</t>
         </is>
       </c>
     </row>
@@ -1430,10 +1430,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H11" t="n">
         <v>0.9852281360342515</v>
@@ -1447,7 +1447,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L11" t="n">
         <v>0.9852281360342515</v>
@@ -1497,7 +1497,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.796095</t>
+          <t>2025-10-19T23:55:58.571777</t>
         </is>
       </c>
     </row>
@@ -1520,10 +1520,10 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H12" t="n">
         <v>0.9852281360342515</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.796095</t>
+          <t>2025-10-19T23:55:58.571777</t>
         </is>
       </c>
     </row>
@@ -1614,10 +1614,10 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H13" t="n">
         <v>0.9852281360342515</v>
@@ -1631,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.797095</t>
+          <t>2025-10-19T23:55:58.571777</t>
         </is>
       </c>
     </row>
@@ -1708,10 +1708,10 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H14" t="n">
         <v>0.9852281360342515</v>
@@ -1725,7 +1725,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L14" t="n">
         <v>0.9852281360342515</v>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.797095</t>
+          <t>2025-10-19T23:55:58.572777</t>
         </is>
       </c>
     </row>
@@ -1802,10 +1802,10 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H15" t="n">
         <v>0.9852281360342515</v>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.797095</t>
+          <t>2025-10-19T23:55:58.572777</t>
         </is>
       </c>
     </row>
@@ -1896,10 +1896,10 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H16" t="n">
         <v>0.9852281360342515</v>
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.797095</t>
+          <t>2025-10-19T23:55:58.572777</t>
         </is>
       </c>
     </row>
@@ -1990,10 +1990,10 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H17" t="n">
         <v>0.9852281360342515</v>
@@ -2007,7 +2007,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L17" t="n">
         <v>0.8631205685666311</v>
@@ -2057,7 +2057,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.797095</t>
+          <t>2025-10-19T23:55:58.572777</t>
         </is>
       </c>
     </row>
@@ -2080,10 +2080,10 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H18" t="n">
         <v>0.9852281360342515</v>
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.797095</t>
+          <t>2025-10-19T23:55:58.572777</t>
         </is>
       </c>
     </row>
@@ -2170,10 +2170,10 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H19" t="n">
         <v>0.9852281360342515</v>
@@ -2187,7 +2187,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L19" t="n">
         <v>0.8631205685666311</v>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.797095</t>
+          <t>2025-10-19T23:55:58.572777</t>
         </is>
       </c>
     </row>
@@ -2264,10 +2264,10 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H20" t="n">
         <v>0.9852281360342515</v>
@@ -2281,7 +2281,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L20" t="n">
         <v>0.5916727785823274</v>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.797095</t>
+          <t>2025-10-19T23:55:58.573776</t>
         </is>
       </c>
     </row>
@@ -2358,10 +2358,10 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H21" t="n">
         <v>0.9852281360342515</v>
@@ -2375,7 +2375,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L21" t="n">
         <v>0.9852281360342515</v>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.797095</t>
+          <t>2025-10-19T23:55:58.573776</t>
         </is>
       </c>
     </row>
@@ -2452,10 +2452,10 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H22" t="n">
         <v>0.9852281360342515</v>
@@ -2469,7 +2469,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L22" t="n">
         <v>0.5916727785823274</v>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.797095</t>
+          <t>2025-10-19T23:55:58.573776</t>
         </is>
       </c>
     </row>
@@ -2546,10 +2546,10 @@
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H23" t="n">
         <v>0.9852281360342515</v>
@@ -2563,7 +2563,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L23" t="n">
         <v>0.5916727785823274</v>
@@ -2613,7 +2613,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.797095</t>
+          <t>2025-10-19T23:55:58.573776</t>
         </is>
       </c>
     </row>
@@ -2636,10 +2636,10 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H24" t="n">
         <v>0.9852281360342515</v>
@@ -2653,7 +2653,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L24" t="n">
         <v>0.9852281360342515</v>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.798094</t>
+          <t>2025-10-19T23:55:58.573776</t>
         </is>
       </c>
     </row>
@@ -2730,10 +2730,10 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H25" t="n">
         <v>0.9852281360342515</v>
@@ -2747,7 +2747,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L25" t="n">
         <v>0.5916727785823274</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.798094</t>
+          <t>2025-10-19T23:55:58.573776</t>
         </is>
       </c>
     </row>
@@ -2824,10 +2824,10 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H26" t="n">
         <v>0.9852281360342515</v>
@@ -2841,7 +2841,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L26" t="n">
         <v>0.8631205685666311</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.798094</t>
+          <t>2025-10-19T23:55:58.574775</t>
         </is>
       </c>
     </row>
@@ -2918,10 +2918,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H27" t="n">
         <v>0.9852281360342515</v>
@@ -2935,7 +2935,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L27" t="n">
         <v>0.8631205685666311</v>
@@ -2985,7 +2985,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.798094</t>
+          <t>2025-10-19T23:55:58.574775</t>
         </is>
       </c>
     </row>
@@ -3008,10 +3008,10 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H28" t="n">
         <v>0.9852281360342515</v>
@@ -3025,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.798094</t>
+          <t>2025-10-19T23:55:58.574775</t>
         </is>
       </c>
     </row>
@@ -3102,10 +3102,10 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H29" t="n">
         <v>0.9852281360342515</v>
@@ -3119,7 +3119,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L29" t="n">
         <v>0.9852281360342515</v>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.798094</t>
+          <t>2025-10-19T23:55:58.574775</t>
         </is>
       </c>
     </row>
@@ -3196,10 +3196,10 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H30" t="n">
         <v>0.9852281360342515</v>
@@ -3213,7 +3213,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L30" t="n">
         <v>0.8631205685666311</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.798094</t>
+          <t>2025-10-19T23:55:58.574775</t>
         </is>
       </c>
     </row>
@@ -3290,10 +3290,10 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H31" t="n">
         <v>0.9852281360342515</v>
@@ -3307,7 +3307,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L31" t="n">
         <v>0.5916727785823274</v>
@@ -3357,7 +3357,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.798094</t>
+          <t>2025-10-19T23:55:58.574775</t>
         </is>
       </c>
     </row>
@@ -3380,10 +3380,10 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H32" t="n">
         <v>0.9852281360342515</v>
@@ -3397,7 +3397,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K32" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L32" t="n">
         <v>0.8631205685666311</v>
@@ -3447,7 +3447,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.798094</t>
+          <t>2025-10-19T23:55:58.575773</t>
         </is>
       </c>
     </row>
@@ -3470,10 +3470,10 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H33" t="n">
         <v>0.9852281360342515</v>
@@ -3487,7 +3487,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L33" t="n">
         <v>0.9852281360342515</v>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.798094</t>
+          <t>2025-10-19T23:55:58.575773</t>
         </is>
       </c>
     </row>
@@ -3564,10 +3564,10 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H34" t="n">
         <v>0.9852281360342515</v>
@@ -3581,7 +3581,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L34" t="n">
         <v>0.9852281360342515</v>
@@ -3631,7 +3631,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.798094</t>
+          <t>2025-10-19T23:55:58.575773</t>
         </is>
       </c>
     </row>
@@ -3654,10 +3654,10 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H35" t="n">
         <v>0.9852281360342515</v>
@@ -3671,7 +3671,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K35" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L35" t="n">
         <v>0.8631205685666311</v>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.799094</t>
+          <t>2025-10-19T23:55:58.575773</t>
         </is>
       </c>
     </row>
@@ -3748,10 +3748,10 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H36" t="n">
         <v>0.9852281360342515</v>
@@ -3765,7 +3765,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L36" t="n">
         <v>0.9852281360342515</v>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.799094</t>
+          <t>2025-10-19T23:55:58.575773</t>
         </is>
       </c>
     </row>
@@ -3842,10 +3842,10 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H37" t="n">
         <v>0.9852281360342515</v>
@@ -3859,7 +3859,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L37" t="n">
         <v>0.5916727785823274</v>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.799094</t>
+          <t>2025-10-19T23:55:58.575773</t>
         </is>
       </c>
     </row>
@@ -3936,10 +3936,10 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H38" t="n">
         <v>0.9852281360342515</v>
@@ -3953,7 +3953,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L38" t="n">
         <v>0.9852281360342515</v>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.799094</t>
+          <t>2025-10-19T23:55:58.576776</t>
         </is>
       </c>
     </row>
@@ -4030,10 +4030,10 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H39" t="n">
         <v>0.9852281360342515</v>
@@ -4047,7 +4047,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L39" t="n">
         <v>0.9852281360342515</v>
@@ -4097,7 +4097,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.799094</t>
+          <t>2025-10-19T23:55:58.576776</t>
         </is>
       </c>
     </row>
@@ -4120,10 +4120,10 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H40" t="n">
         <v>0.9852281360342515</v>
@@ -4137,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.799094</t>
+          <t>2025-10-19T23:55:58.576776</t>
         </is>
       </c>
     </row>
@@ -4214,10 +4214,10 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H41" t="n">
         <v>0.9852281360342515</v>
@@ -4231,7 +4231,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L41" t="n">
         <v>0.5916727785823274</v>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.799094</t>
+          <t>2025-10-19T23:55:58.576776</t>
         </is>
       </c>
     </row>
@@ -4308,10 +4308,10 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H42" t="n">
         <v>0.9852281360342515</v>
@@ -4325,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.799094</t>
+          <t>2025-10-19T23:55:58.576776</t>
         </is>
       </c>
     </row>
@@ -4402,10 +4402,10 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H43" t="n">
         <v>0.9852281360342515</v>
@@ -4419,7 +4419,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L43" t="n">
         <v>0.8631205685666311</v>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.799094</t>
+          <t>2025-10-19T23:55:58.576776</t>
         </is>
       </c>
     </row>
@@ -4496,10 +4496,10 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H44" t="n">
         <v>0.9852281360342515</v>
@@ -4513,7 +4513,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K44" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L44" t="n">
         <v>0.5916727785823274</v>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.799094</t>
+          <t>2025-10-19T23:55:58.577776</t>
         </is>
       </c>
     </row>
@@ -4590,10 +4590,10 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>1.012677685156985</v>
+        <v>1.003449896865958</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H45" t="n">
         <v>0.9852281360342515</v>
@@ -4607,7 +4607,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L45" t="n">
         <v>0.5916727785823274</v>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:34.799094</t>
+          <t>2025-10-19T23:55:58.578775</t>
         </is>
       </c>
     </row>
@@ -4684,10 +4684,10 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H46" t="n">
         <v>0.8631205685666311</v>
@@ -4701,7 +4701,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L46" t="n">
         <v>0.8631205685666311</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.008726</t>
+          <t>2025-10-19T23:55:58.677721</t>
         </is>
       </c>
     </row>
@@ -4778,10 +4778,10 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H47" t="n">
         <v>0.8631205685666311</v>
@@ -4795,7 +4795,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L47" t="n">
         <v>0.8631205685666311</v>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.008726</t>
+          <t>2025-10-19T23:55:58.677721</t>
         </is>
       </c>
     </row>
@@ -4872,10 +4872,10 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H48" t="n">
         <v>0.8631205685666311</v>
@@ -4889,7 +4889,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L48" t="n">
         <v>0.5916727785823274</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.008726</t>
+          <t>2025-10-19T23:55:58.678718</t>
         </is>
       </c>
     </row>
@@ -4966,10 +4966,10 @@
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G49" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H49" t="n">
         <v>0.8631205685666311</v>
@@ -4983,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.008726</t>
+          <t>2025-10-19T23:55:58.678718</t>
         </is>
       </c>
     </row>
@@ -5060,10 +5060,10 @@
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H50" t="n">
         <v>0.8631205685666311</v>
@@ -5077,7 +5077,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K50" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L50" t="n">
         <v>0.5916727785823274</v>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.008726</t>
+          <t>2025-10-19T23:55:58.678718</t>
         </is>
       </c>
     </row>
@@ -5154,10 +5154,10 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G51" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H51" t="n">
         <v>0.8631205685666311</v>
@@ -5171,7 +5171,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L51" t="n">
         <v>0.5916727785823274</v>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.008726</t>
+          <t>2025-10-19T23:55:58.678718</t>
         </is>
       </c>
     </row>
@@ -5248,10 +5248,10 @@
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H52" t="n">
         <v>0.8631205685666311</v>
@@ -5265,7 +5265,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L52" t="n">
         <v>0.8631205685666311</v>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.008726</t>
+          <t>2025-10-19T23:55:58.679720</t>
         </is>
       </c>
     </row>
@@ -5342,10 +5342,10 @@
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G53" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H53" t="n">
         <v>0.8631205685666311</v>
@@ -5359,7 +5359,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L53" t="n">
         <v>0.8631205685666311</v>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.008726</t>
+          <t>2025-10-19T23:55:58.679720</t>
         </is>
       </c>
     </row>
@@ -5436,10 +5436,10 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H54" t="n">
         <v>0.8631205685666311</v>
@@ -5453,7 +5453,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K54" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L54" t="n">
         <v>0.8631205685666311</v>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.008726</t>
+          <t>2025-10-19T23:55:58.679720</t>
         </is>
       </c>
     </row>
@@ -5530,10 +5530,10 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H55" t="n">
         <v>0.8631205685666311</v>
@@ -5547,7 +5547,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L55" t="n">
         <v>0.8631205685666311</v>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.008726</t>
+          <t>2025-10-19T23:55:58.679720</t>
         </is>
       </c>
     </row>
@@ -5624,10 +5624,10 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G56" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H56" t="n">
         <v>0.8631205685666311</v>
@@ -5641,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.008726</t>
+          <t>2025-10-19T23:55:58.679720</t>
         </is>
       </c>
     </row>
@@ -5718,10 +5718,10 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H57" t="n">
         <v>0.8631205685666311</v>
@@ -5735,7 +5735,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L57" t="n">
         <v>0.8631205685666311</v>
@@ -5789,7 +5789,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.017782</t>
+          <t>2025-10-19T23:55:58.680719</t>
         </is>
       </c>
     </row>
@@ -5812,10 +5812,10 @@
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H58" t="n">
         <v>0.8631205685666311</v>
@@ -5829,7 +5829,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K58" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L58" t="n">
         <v>0.8631205685666311</v>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.017782</t>
+          <t>2025-10-19T23:55:58.680719</t>
         </is>
       </c>
     </row>
@@ -5906,10 +5906,10 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G59" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H59" t="n">
         <v>0.8631205685666311</v>
@@ -5923,7 +5923,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K59" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L59" t="n">
         <v>0.8631205685666311</v>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.017782</t>
+          <t>2025-10-19T23:55:58.680719</t>
         </is>
       </c>
     </row>
@@ -6000,10 +6000,10 @@
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G60" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H60" t="n">
         <v>0.8631205685666311</v>
@@ -6017,7 +6017,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L60" t="n">
         <v>0.9852281360342515</v>
@@ -6067,7 +6067,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.018320</t>
+          <t>2025-10-19T23:55:58.680719</t>
         </is>
       </c>
     </row>
@@ -6090,10 +6090,10 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G61" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H61" t="n">
         <v>0.8631205685666311</v>
@@ -6107,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.018320</t>
+          <t>2025-10-19T23:55:58.680719</t>
         </is>
       </c>
     </row>
@@ -6184,10 +6184,10 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G62" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H62" t="n">
         <v>0.8631205685666311</v>
@@ -6201,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.018320</t>
+          <t>2025-10-19T23:55:58.681718</t>
         </is>
       </c>
     </row>
@@ -6278,10 +6278,10 @@
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G63" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H63" t="n">
         <v>0.8631205685666311</v>
@@ -6295,7 +6295,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K63" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L63" t="n">
         <v>0.9852281360342515</v>
@@ -6345,7 +6345,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.018320</t>
+          <t>2025-10-19T23:55:58.682735</t>
         </is>
       </c>
     </row>
@@ -6368,10 +6368,10 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H64" t="n">
         <v>0.8631205685666311</v>
@@ -6385,7 +6385,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K64" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L64" t="n">
         <v>0.9852281360342515</v>
@@ -6435,7 +6435,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.018320</t>
+          <t>2025-10-19T23:55:58.682735</t>
         </is>
       </c>
     </row>
@@ -6458,10 +6458,10 @@
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H65" t="n">
         <v>0.8631205685666311</v>
@@ -6475,7 +6475,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L65" t="n">
         <v>0.9852281360342515</v>
@@ -6525,7 +6525,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.018320</t>
+          <t>2025-10-19T23:55:58.682735</t>
         </is>
       </c>
     </row>
@@ -6548,10 +6548,10 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H66" t="n">
         <v>0.8631205685666311</v>
@@ -6565,7 +6565,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K66" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L66" t="n">
         <v>0.8631205685666311</v>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.018320</t>
+          <t>2025-10-19T23:55:58.682735</t>
         </is>
       </c>
     </row>
@@ -6642,10 +6642,10 @@
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G67" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H67" t="n">
         <v>0.8631205685666311</v>
@@ -6659,7 +6659,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L67" t="n">
         <v>0.8631205685666311</v>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.018320</t>
+          <t>2025-10-19T23:55:58.683720</t>
         </is>
       </c>
     </row>
@@ -6736,10 +6736,10 @@
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G68" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H68" t="n">
         <v>0.8631205685666311</v>
@@ -6753,7 +6753,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K68" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L68" t="n">
         <v>0.5916727785823274</v>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.018320</t>
+          <t>2025-10-19T23:55:58.683720</t>
         </is>
       </c>
     </row>
@@ -6830,10 +6830,10 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H69" t="n">
         <v>0.8631205685666311</v>
@@ -6847,7 +6847,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K69" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L69" t="n">
         <v>0.8631205685666311</v>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.018320</t>
+          <t>2025-10-19T23:55:58.683720</t>
         </is>
       </c>
     </row>
@@ -6924,10 +6924,10 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G70" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H70" t="n">
         <v>0.8631205685666311</v>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.018320</t>
+          <t>2025-10-19T23:55:58.683720</t>
         </is>
       </c>
     </row>
@@ -7018,10 +7018,10 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G71" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H71" t="n">
         <v>0.8631205685666311</v>
@@ -7035,7 +7035,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L71" t="n">
         <v>0.8631205685666311</v>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.018320</t>
+          <t>2025-10-19T23:55:58.684721</t>
         </is>
       </c>
     </row>
@@ -7112,10 +7112,10 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H72" t="n">
         <v>0.8631205685666311</v>
@@ -7129,7 +7129,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K72" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L72" t="n">
         <v>0.8631205685666311</v>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.018320</t>
+          <t>2025-10-19T23:55:58.684721</t>
         </is>
       </c>
     </row>
@@ -7206,10 +7206,10 @@
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G73" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H73" t="n">
         <v>0.8631205685666311</v>
@@ -7223,7 +7223,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K73" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L73" t="n">
         <v>0.5916727785823274</v>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.018320</t>
+          <t>2025-10-19T23:55:58.685720</t>
         </is>
       </c>
     </row>
@@ -7300,10 +7300,10 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>1.027523597775434</v>
+        <v>1.000000011720752</v>
       </c>
       <c r="G74" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H74" t="n">
         <v>0.8631205685666311</v>
@@ -7317,7 +7317,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L74" t="n">
         <v>0.8631205685666311</v>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.018320</t>
+          <t>2025-10-19T23:55:58.685720</t>
         </is>
       </c>
     </row>
@@ -7394,10 +7394,10 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H75" t="n">
         <v>0.8631205685666311</v>
@@ -7411,7 +7411,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K75" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L75" t="n">
         <v>0.5916727785823274</v>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.889452</t>
         </is>
       </c>
     </row>
@@ -7488,10 +7488,10 @@
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H76" t="n">
         <v>0.8631205685666311</v>
@@ -7505,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.889452</t>
         </is>
       </c>
     </row>
@@ -7582,10 +7582,10 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H77" t="n">
         <v>0.8631205685666311</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.890451</t>
         </is>
       </c>
     </row>
@@ -7676,10 +7676,10 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H78" t="n">
         <v>0.8631205685666311</v>
@@ -7693,7 +7693,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L78" t="n">
         <v>0.8631205685666311</v>
@@ -7747,7 +7747,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.890451</t>
         </is>
       </c>
     </row>
@@ -7770,10 +7770,10 @@
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G79" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H79" t="n">
         <v>0.8631205685666311</v>
@@ -7787,7 +7787,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K79" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L79" t="n">
         <v>0.8631205685666311</v>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.892450</t>
         </is>
       </c>
     </row>
@@ -7864,10 +7864,10 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H80" t="n">
         <v>0.8631205685666311</v>
@@ -7881,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.892450</t>
         </is>
       </c>
     </row>
@@ -7958,10 +7958,10 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H81" t="n">
         <v>0.8631205685666311</v>
@@ -7975,7 +7975,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K81" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L81" t="n">
         <v>0.5916727785823274</v>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.892450</t>
         </is>
       </c>
     </row>
@@ -8052,10 +8052,10 @@
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H82" t="n">
         <v>0.8631205685666311</v>
@@ -8069,7 +8069,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K82" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L82" t="n">
         <v>0.9852281360342515</v>
@@ -8119,7 +8119,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.892450</t>
         </is>
       </c>
     </row>
@@ -8142,10 +8142,10 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G83" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H83" t="n">
         <v>0.8631205685666311</v>
@@ -8159,7 +8159,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L83" t="n">
         <v>0.5916727785823274</v>
@@ -8213,7 +8213,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.893489</t>
         </is>
       </c>
     </row>
@@ -8236,10 +8236,10 @@
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G84" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H84" t="n">
         <v>0.8631205685666311</v>
@@ -8253,7 +8253,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K84" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L84" t="n">
         <v>0.8631205685666311</v>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.893489</t>
         </is>
       </c>
     </row>
@@ -8330,10 +8330,10 @@
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G85" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H85" t="n">
         <v>0.8631205685666311</v>
@@ -8347,7 +8347,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K85" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L85" t="n">
         <v>0.9852281360342515</v>
@@ -8397,7 +8397,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.894018</t>
         </is>
       </c>
     </row>
@@ -8420,10 +8420,10 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H86" t="n">
         <v>0.8631205685666311</v>
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.894018</t>
         </is>
       </c>
     </row>
@@ -8514,10 +8514,10 @@
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G87" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H87" t="n">
         <v>0.8631205685666311</v>
@@ -8531,7 +8531,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K87" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L87" t="n">
         <v>0.9852281360342515</v>
@@ -8581,7 +8581,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.894018</t>
         </is>
       </c>
     </row>
@@ -8604,10 +8604,10 @@
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G88" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H88" t="n">
         <v>0.8631205685666311</v>
@@ -8621,7 +8621,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K88" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L88" t="n">
         <v>0.8631205685666311</v>
@@ -8675,7 +8675,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.894018</t>
         </is>
       </c>
     </row>
@@ -8698,10 +8698,10 @@
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G89" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H89" t="n">
         <v>0.8631205685666311</v>
@@ -8715,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.894018</t>
         </is>
       </c>
     </row>
@@ -8792,10 +8792,10 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H90" t="n">
         <v>0.8631205685666311</v>
@@ -8809,7 +8809,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K90" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L90" t="n">
         <v>0.8631205685666311</v>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.895016</t>
         </is>
       </c>
     </row>
@@ -8886,10 +8886,10 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H91" t="n">
         <v>0.8631205685666311</v>
@@ -8903,7 +8903,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K91" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L91" t="n">
         <v>0.8631205685666311</v>
@@ -8957,7 +8957,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.895016</t>
         </is>
       </c>
     </row>
@@ -8980,10 +8980,10 @@
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G92" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H92" t="n">
         <v>0.8631205685666311</v>
@@ -8997,7 +8997,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K92" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L92" t="n">
         <v>0.5916727785823274</v>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.896016</t>
         </is>
       </c>
     </row>
@@ -9074,10 +9074,10 @@
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G93" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H93" t="n">
         <v>0.8631205685666311</v>
@@ -9091,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.897016</t>
         </is>
       </c>
     </row>
@@ -9168,10 +9168,10 @@
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G94" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H94" t="n">
         <v>0.8631205685666311</v>
@@ -9185,7 +9185,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K94" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L94" t="n">
         <v>0.8631205685666311</v>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.897016</t>
         </is>
       </c>
     </row>
@@ -9262,10 +9262,10 @@
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G95" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H95" t="n">
         <v>0.8631205685666311</v>
@@ -9279,7 +9279,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L95" t="n">
         <v>0.9852281360342515</v>
@@ -9329,7 +9329,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.897016</t>
         </is>
       </c>
     </row>
@@ -9352,10 +9352,10 @@
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G96" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H96" t="n">
         <v>0.8631205685666311</v>
@@ -9369,7 +9369,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -9423,7 +9423,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.897016</t>
         </is>
       </c>
     </row>
@@ -9446,10 +9446,10 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H97" t="n">
         <v>0.8631205685666311</v>
@@ -9463,7 +9463,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L97" t="n">
         <v>0.8631205685666311</v>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.899018</t>
         </is>
       </c>
     </row>
@@ -9540,10 +9540,10 @@
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G98" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H98" t="n">
         <v>0.8631205685666311</v>
@@ -9557,7 +9557,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.900020</t>
         </is>
       </c>
     </row>
@@ -9634,10 +9634,10 @@
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H99" t="n">
         <v>0.8631205685666311</v>
@@ -9651,7 +9651,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L99" t="n">
         <v>0.9852281360342515</v>
@@ -9701,7 +9701,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.900020</t>
         </is>
       </c>
     </row>
@@ -9724,10 +9724,10 @@
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G100" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H100" t="n">
         <v>0.8631205685666311</v>
@@ -9741,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.900020</t>
         </is>
       </c>
     </row>
@@ -9818,10 +9818,10 @@
         <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G101" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H101" t="n">
         <v>0.8631205685666311</v>
@@ -9835,7 +9835,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K101" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L101" t="n">
         <v>0.5916727785823274</v>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.901017</t>
         </is>
       </c>
     </row>
@@ -9912,10 +9912,10 @@
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>0.999999988603137</v>
+        <v>0.9886747427800949</v>
       </c>
       <c r="G102" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H102" t="n">
         <v>0.8631205685666311</v>
@@ -9929,7 +9929,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K102" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L102" t="n">
         <v>0.8631205685666311</v>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.129414</t>
+          <t>2025-10-19T23:55:58.901017</t>
         </is>
       </c>
     </row>
@@ -10006,10 +10006,10 @@
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>0.947127793214907</v>
+        <v>0.9465529195601421</v>
       </c>
       <c r="G103" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H103" t="n">
         <v>0.5916727785823274</v>
@@ -10023,7 +10023,7 @@
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.208806</t>
+          <t>2025-10-19T23:55:59.042060</t>
         </is>
       </c>
     </row>
@@ -10100,10 +10100,10 @@
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>0.947127793214907</v>
+        <v>0.9465529195601421</v>
       </c>
       <c r="G104" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H104" t="n">
         <v>0.5916727785823274</v>
@@ -10117,7 +10117,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K104" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L104" t="n">
         <v>0.5916727785823274</v>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.208806</t>
+          <t>2025-10-19T23:55:59.042060</t>
         </is>
       </c>
     </row>
@@ -10194,10 +10194,10 @@
         <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>0.947127793214907</v>
+        <v>0.9465529195601421</v>
       </c>
       <c r="G105" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H105" t="n">
         <v>0.5916727785823274</v>
@@ -10211,7 +10211,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K105" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L105" t="n">
         <v>0.5916727785823274</v>
@@ -10265,7 +10265,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.208806</t>
+          <t>2025-10-19T23:55:59.042060</t>
         </is>
       </c>
     </row>
@@ -10288,10 +10288,10 @@
         <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>0.947127793214907</v>
+        <v>0.9465529195601421</v>
       </c>
       <c r="G106" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H106" t="n">
         <v>0.5916727785823274</v>
@@ -10305,7 +10305,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K106" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L106" t="n">
         <v>0.8631205685666311</v>
@@ -10355,7 +10355,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.208806</t>
+          <t>2025-10-19T23:55:59.042060</t>
         </is>
       </c>
     </row>
@@ -10378,10 +10378,10 @@
         <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>0.947127793214907</v>
+        <v>0.9465529195601421</v>
       </c>
       <c r="G107" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H107" t="n">
         <v>0.5916727785823274</v>
@@ -10395,7 +10395,7 @@
         <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.208806</t>
+          <t>2025-10-19T23:55:59.043059</t>
         </is>
       </c>
     </row>
@@ -10472,10 +10472,10 @@
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>0.947127793214907</v>
+        <v>0.9465529195601421</v>
       </c>
       <c r="G108" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H108" t="n">
         <v>0.5916727785823274</v>
@@ -10489,7 +10489,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.208806</t>
+          <t>2025-10-19T23:55:59.043059</t>
         </is>
       </c>
     </row>
@@ -10566,10 +10566,10 @@
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>0.947127793214907</v>
+        <v>0.9465529195601421</v>
       </c>
       <c r="G109" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H109" t="n">
         <v>0.5916727785823274</v>
@@ -10583,7 +10583,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K109" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L109" t="n">
         <v>0.5916727785823274</v>
@@ -10637,7 +10637,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.208806</t>
+          <t>2025-10-19T23:55:59.043059</t>
         </is>
       </c>
     </row>
@@ -10660,10 +10660,10 @@
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>0.947127793214907</v>
+        <v>0.9465529195601421</v>
       </c>
       <c r="G110" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H110" t="n">
         <v>0.5916727785823274</v>
@@ -10677,7 +10677,7 @@
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.208806</t>
+          <t>2025-10-19T23:55:59.043059</t>
         </is>
       </c>
     </row>
@@ -10754,10 +10754,10 @@
         <v>7</v>
       </c>
       <c r="F111" t="n">
-        <v>0.947127793214907</v>
+        <v>0.9465529195601421</v>
       </c>
       <c r="G111" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H111" t="n">
         <v>0.5916727785823274</v>
@@ -10771,7 +10771,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K111" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L111" t="n">
         <v>0.5916727785823274</v>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.208806</t>
+          <t>2025-10-19T23:55:59.043059</t>
         </is>
       </c>
     </row>
@@ -10848,10 +10848,10 @@
         <v>7</v>
       </c>
       <c r="F112" t="n">
-        <v>0.947127793214907</v>
+        <v>0.9465529195601421</v>
       </c>
       <c r="G112" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H112" t="n">
         <v>0.5916727785823274</v>
@@ -10865,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:35.208806</t>
+          <t>2025-10-19T23:55:59.043059</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
@@ -64,6 +64,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2D7D9"/>
+          <bgColor rgb="FFF2D7D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -655,7 +665,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.569779</t>
+          <t>2025-10-20T01:22:18.561984</t>
         </is>
       </c>
     </row>
@@ -749,7 +759,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.570776</t>
+          <t>2025-10-20T01:22:18.561984</t>
         </is>
       </c>
     </row>
@@ -843,7 +853,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.570776</t>
+          <t>2025-10-20T01:22:18.561984</t>
         </is>
       </c>
     </row>
@@ -937,7 +947,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.570776</t>
+          <t>2025-10-20T01:22:18.561984</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1041,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.570776</t>
+          <t>2025-10-20T01:22:18.562984</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1135,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.570776</t>
+          <t>2025-10-20T01:22:18.562984</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1229,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.571777</t>
+          <t>2025-10-20T01:22:18.562984</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1323,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.571777</t>
+          <t>2025-10-20T01:22:18.562984</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1417,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.571777</t>
+          <t>2025-10-20T01:22:18.563981</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1507,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.571777</t>
+          <t>2025-10-20T01:22:18.563981</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1601,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.571777</t>
+          <t>2025-10-20T01:22:18.563981</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1695,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.571777</t>
+          <t>2025-10-20T01:22:18.563981</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1789,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.572777</t>
+          <t>2025-10-20T01:22:18.563981</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1883,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.572777</t>
+          <t>2025-10-20T01:22:18.563981</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1977,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.572777</t>
+          <t>2025-10-20T01:22:18.563981</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2067,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.572777</t>
+          <t>2025-10-20T01:22:18.563981</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2157,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.572777</t>
+          <t>2025-10-20T01:22:18.563981</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2251,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.572777</t>
+          <t>2025-10-20T01:22:18.563981</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2345,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.573776</t>
+          <t>2025-10-20T01:22:18.564982</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2439,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.573776</t>
+          <t>2025-10-20T01:22:18.564982</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2533,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.573776</t>
+          <t>2025-10-20T01:22:18.564982</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2623,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.573776</t>
+          <t>2025-10-20T01:22:18.564982</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2717,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.573776</t>
+          <t>2025-10-20T01:22:18.564982</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2811,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.573776</t>
+          <t>2025-10-20T01:22:18.564982</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2905,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.574775</t>
+          <t>2025-10-20T01:22:18.564982</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2995,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.574775</t>
+          <t>2025-10-20T01:22:18.564982</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3089,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.574775</t>
+          <t>2025-10-20T01:22:18.564982</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3183,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.574775</t>
+          <t>2025-10-20T01:22:18.565981</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3277,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.574775</t>
+          <t>2025-10-20T01:22:18.565981</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3367,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.574775</t>
+          <t>2025-10-20T01:22:18.565981</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3457,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.575773</t>
+          <t>2025-10-20T01:22:18.565981</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3551,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.575773</t>
+          <t>2025-10-20T01:22:18.565981</t>
         </is>
       </c>
     </row>
@@ -3631,7 +3641,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.575773</t>
+          <t>2025-10-20T01:22:18.565981</t>
         </is>
       </c>
     </row>
@@ -3725,7 +3735,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.575773</t>
+          <t>2025-10-20T01:22:18.565981</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3829,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.575773</t>
+          <t>2025-10-20T01:22:18.565981</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3923,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.575773</t>
+          <t>2025-10-20T01:22:18.565981</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4017,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.576776</t>
+          <t>2025-10-20T01:22:18.565981</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4107,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.576776</t>
+          <t>2025-10-20T01:22:18.566981</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4201,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.576776</t>
+          <t>2025-10-20T01:22:18.566981</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4295,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.576776</t>
+          <t>2025-10-20T01:22:18.566981</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4389,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.576776</t>
+          <t>2025-10-20T01:22:18.566981</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4483,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.576776</t>
+          <t>2025-10-20T01:22:18.566981</t>
         </is>
       </c>
     </row>
@@ -4567,7 +4577,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.577776</t>
+          <t>2025-10-20T01:22:18.566981</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4671,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.578775</t>
+          <t>2025-10-20T01:22:18.566981</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4765,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.677721</t>
+          <t>2025-10-20T01:22:18.721513</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4859,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.677721</t>
+          <t>2025-10-20T01:22:18.722044</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4953,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.678718</t>
+          <t>2025-10-20T01:22:18.722044</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5047,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.678718</t>
+          <t>2025-10-20T01:22:18.724038</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5141,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.678718</t>
+          <t>2025-10-20T01:22:18.724038</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5235,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.678718</t>
+          <t>2025-10-20T01:22:18.724038</t>
         </is>
       </c>
     </row>
@@ -5319,7 +5329,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.679720</t>
+          <t>2025-10-20T01:22:18.724038</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5423,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.679720</t>
+          <t>2025-10-20T01:22:18.725039</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5517,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.679720</t>
+          <t>2025-10-20T01:22:18.725039</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5611,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.679720</t>
+          <t>2025-10-20T01:22:18.725039</t>
         </is>
       </c>
     </row>
@@ -5695,7 +5705,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.679720</t>
+          <t>2025-10-20T01:22:18.726059</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5799,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.680719</t>
+          <t>2025-10-20T01:22:18.726059</t>
         </is>
       </c>
     </row>
@@ -5883,7 +5893,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.680719</t>
+          <t>2025-10-20T01:22:18.726059</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5987,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.680719</t>
+          <t>2025-10-20T01:22:18.726059</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6077,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.680719</t>
+          <t>2025-10-20T01:22:18.727035</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6171,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.680719</t>
+          <t>2025-10-20T01:22:18.727035</t>
         </is>
       </c>
     </row>
@@ -6255,7 +6265,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.681718</t>
+          <t>2025-10-20T01:22:18.727035</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6355,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.682735</t>
+          <t>2025-10-20T01:22:18.727035</t>
         </is>
       </c>
     </row>
@@ -6435,7 +6445,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.682735</t>
+          <t>2025-10-20T01:22:18.727035</t>
         </is>
       </c>
     </row>
@@ -6525,7 +6535,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.682735</t>
+          <t>2025-10-20T01:22:18.728032</t>
         </is>
       </c>
     </row>
@@ -6619,7 +6629,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.682735</t>
+          <t>2025-10-20T01:22:18.728032</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6723,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.683720</t>
+          <t>2025-10-20T01:22:18.728032</t>
         </is>
       </c>
     </row>
@@ -6807,7 +6817,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.683720</t>
+          <t>2025-10-20T01:22:18.728032</t>
         </is>
       </c>
     </row>
@@ -6901,7 +6911,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.683720</t>
+          <t>2025-10-20T01:22:18.728032</t>
         </is>
       </c>
     </row>
@@ -6995,7 +7005,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.683720</t>
+          <t>2025-10-20T01:22:18.728032</t>
         </is>
       </c>
     </row>
@@ -7089,7 +7099,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.684721</t>
+          <t>2025-10-20T01:22:18.729034</t>
         </is>
       </c>
     </row>
@@ -7183,7 +7193,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.684721</t>
+          <t>2025-10-20T01:22:18.729034</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7287,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.685720</t>
+          <t>2025-10-20T01:22:18.729034</t>
         </is>
       </c>
     </row>
@@ -7371,7 +7381,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.685720</t>
+          <t>2025-10-20T01:22:18.729034</t>
         </is>
       </c>
     </row>
@@ -7465,7 +7475,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.889452</t>
+          <t>2025-10-20T01:22:18.795919</t>
         </is>
       </c>
     </row>
@@ -7559,7 +7569,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.889452</t>
+          <t>2025-10-20T01:22:18.795919</t>
         </is>
       </c>
     </row>
@@ -7653,7 +7663,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.890451</t>
+          <t>2025-10-20T01:22:18.795919</t>
         </is>
       </c>
     </row>
@@ -7747,7 +7757,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.890451</t>
+          <t>2025-10-20T01:22:18.795919</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7851,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.892450</t>
+          <t>2025-10-20T01:22:18.795919</t>
         </is>
       </c>
     </row>
@@ -7935,7 +7945,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.892450</t>
+          <t>2025-10-20T01:22:18.796923</t>
         </is>
       </c>
     </row>
@@ -8029,7 +8039,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.892450</t>
+          <t>2025-10-20T01:22:18.796923</t>
         </is>
       </c>
     </row>
@@ -8119,7 +8129,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.892450</t>
+          <t>2025-10-20T01:22:18.796923</t>
         </is>
       </c>
     </row>
@@ -8213,7 +8223,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.893489</t>
+          <t>2025-10-20T01:22:18.796923</t>
         </is>
       </c>
     </row>
@@ -8307,7 +8317,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.893489</t>
+          <t>2025-10-20T01:22:18.796923</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8407,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.894018</t>
+          <t>2025-10-20T01:22:18.796923</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8501,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.894018</t>
+          <t>2025-10-20T01:22:18.796923</t>
         </is>
       </c>
     </row>
@@ -8581,7 +8591,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.894018</t>
+          <t>2025-10-20T01:22:18.796923</t>
         </is>
       </c>
     </row>
@@ -8675,7 +8685,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.894018</t>
+          <t>2025-10-20T01:22:18.796923</t>
         </is>
       </c>
     </row>
@@ -8769,7 +8779,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.894018</t>
+          <t>2025-10-20T01:22:18.797917</t>
         </is>
       </c>
     </row>
@@ -8863,7 +8873,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.895016</t>
+          <t>2025-10-20T01:22:18.797917</t>
         </is>
       </c>
     </row>
@@ -8957,7 +8967,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.895016</t>
+          <t>2025-10-20T01:22:18.797917</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9061,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.896016</t>
+          <t>2025-10-20T01:22:18.797917</t>
         </is>
       </c>
     </row>
@@ -9145,7 +9155,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.897016</t>
+          <t>2025-10-20T01:22:18.797917</t>
         </is>
       </c>
     </row>
@@ -9239,7 +9249,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.897016</t>
+          <t>2025-10-20T01:22:18.797917</t>
         </is>
       </c>
     </row>
@@ -9329,7 +9339,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.897016</t>
+          <t>2025-10-20T01:22:18.797917</t>
         </is>
       </c>
     </row>
@@ -9423,7 +9433,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.897016</t>
+          <t>2025-10-20T01:22:18.797917</t>
         </is>
       </c>
     </row>
@@ -9517,7 +9527,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.899018</t>
+          <t>2025-10-20T01:22:18.798916</t>
         </is>
       </c>
     </row>
@@ -9611,7 +9621,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.900020</t>
+          <t>2025-10-20T01:22:18.798916</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9711,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.900020</t>
+          <t>2025-10-20T01:22:18.798916</t>
         </is>
       </c>
     </row>
@@ -9795,7 +9805,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.900020</t>
+          <t>2025-10-20T01:22:18.798916</t>
         </is>
       </c>
     </row>
@@ -9889,7 +9899,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.901017</t>
+          <t>2025-10-20T01:22:18.798916</t>
         </is>
       </c>
     </row>
@@ -9983,7 +9993,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:58.901017</t>
+          <t>2025-10-20T01:22:18.798916</t>
         </is>
       </c>
     </row>
@@ -10077,7 +10087,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:59.042060</t>
+          <t>2025-10-20T01:22:18.858420</t>
         </is>
       </c>
     </row>
@@ -10171,7 +10181,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:59.042060</t>
+          <t>2025-10-20T01:22:18.858420</t>
         </is>
       </c>
     </row>
@@ -10265,7 +10275,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:59.042060</t>
+          <t>2025-10-20T01:22:18.858420</t>
         </is>
       </c>
     </row>
@@ -10355,7 +10365,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:59.042060</t>
+          <t>2025-10-20T01:22:18.858420</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10459,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:59.043059</t>
+          <t>2025-10-20T01:22:18.858961</t>
         </is>
       </c>
     </row>
@@ -10543,7 +10553,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:59.043059</t>
+          <t>2025-10-20T01:22:18.858961</t>
         </is>
       </c>
     </row>
@@ -10637,7 +10647,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:59.043059</t>
+          <t>2025-10-20T01:22:18.858961</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10741,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:59.043059</t>
+          <t>2025-10-20T01:22:18.858961</t>
         </is>
       </c>
     </row>
@@ -10825,7 +10835,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:59.043059</t>
+          <t>2025-10-20T01:22:18.859479</t>
         </is>
       </c>
     </row>
@@ -10919,11 +10929,16 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:59.043059</t>
+          <t>2025-10-20T01:22:18.859479</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:Z112">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>=$D2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
@@ -655,17 +655,17 @@
         <v>0.8023455739021301</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4973773873201034</v>
+        <v>0.3455870325083883</v>
       </c>
       <c r="Y2" t="n">
         <v>26</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.561984</t>
+          <t>2025-10-23T11:30:00.760629</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
         <v>0.8471583127975464</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>0.3822074026636463</v>
+        <v>0.4061869166634273</v>
       </c>
       <c r="Y3" t="n">
         <v>212</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.561984</t>
+          <t>2025-10-23T11:30:00.760629</t>
         </is>
       </c>
     </row>
@@ -846,14 +846,14 @@
         <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5443459042329746</v>
+        <v>0.4601756619633539</v>
       </c>
       <c r="Y4" t="n">
         <v>31</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.561984</t>
+          <t>2025-10-23T11:30:00.761666</t>
         </is>
       </c>
     </row>
@@ -940,14 +940,14 @@
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5931264066149118</v>
+        <v>0.4369708911051055</v>
       </c>
       <c r="Y5" t="n">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.561984</t>
+          <t>2025-10-23T11:30:00.761666</t>
         </is>
       </c>
     </row>
@@ -1031,17 +1031,13 @@
         <v>1.012915372848511</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.4716931457088545</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>207</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.562984</t>
+          <t>2025-10-23T11:30:00.761666</t>
         </is>
       </c>
     </row>
@@ -1125,17 +1121,17 @@
         <v>0.8023927807807922</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5607344153798228</v>
+        <v>0.6913069140965821</v>
       </c>
       <c r="Y7" t="n">
         <v>22</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.562984</t>
+          <t>2025-10-23T11:30:00.761666</t>
         </is>
       </c>
     </row>
@@ -1222,14 +1218,14 @@
         <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.5700077155579598</v>
       </c>
       <c r="Y8" t="n">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.562984</t>
+          <t>2025-10-23T11:30:00.761666</t>
         </is>
       </c>
     </row>
@@ -1313,17 +1309,17 @@
         <v>0.7672163248062134</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>0.4834822006297558</v>
+        <v>0.5197316968394073</v>
       </c>
       <c r="Y9" t="n">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.562984</t>
+          <t>2025-10-23T11:30:00.761666</t>
         </is>
       </c>
     </row>
@@ -1407,17 +1403,17 @@
         <v>0.9495165944099426</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4195344228012768</v>
+        <v>0.4969659942717967</v>
       </c>
       <c r="Y10" t="n">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.563981</t>
+          <t>2025-10-23T11:30:00.761666</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1503,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.563981</t>
+          <t>2025-10-23T11:30:00.761666</t>
         </is>
       </c>
     </row>
@@ -1594,14 +1590,14 @@
         <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0.4244175909401347</v>
+        <v>0.4739308912122809</v>
       </c>
       <c r="Y12" t="n">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.563981</t>
+          <t>2025-10-23T11:30:00.763493</t>
         </is>
       </c>
     </row>
@@ -1685,17 +1681,17 @@
         <v>0.8959951996803284</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>0.5424541179848884</v>
+        <v>0.4503564591650728</v>
       </c>
       <c r="Y13" t="n">
         <v>15</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.563981</t>
+          <t>2025-10-23T11:30:00.763493</t>
         </is>
       </c>
     </row>
@@ -1782,14 +1778,14 @@
         <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>0.3062858371373469</v>
+        <v>0.4721461166512687</v>
       </c>
       <c r="Y14" t="n">
         <v>7</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.563981</t>
+          <t>2025-10-23T11:30:00.764046</t>
         </is>
       </c>
     </row>
@@ -1876,14 +1872,14 @@
         <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.5697827648532168</v>
       </c>
       <c r="Y15" t="n">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.563981</t>
+          <t>2025-10-23T11:30:00.764046</t>
         </is>
       </c>
     </row>
@@ -1967,17 +1963,13 @@
         <v>0.8871877193450928</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.405083825348819</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.563981</t>
+          <t>2025-10-23T11:30:00.766195</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2059,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.563981</t>
+          <t>2025-10-23T11:30:00.766727</t>
         </is>
       </c>
     </row>
@@ -2151,13 +2143,17 @@
         <v>0.9119172096252441</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.453356202855057</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>5</v>
+      </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.563981</t>
+          <t>2025-10-23T11:30:00.766756</t>
         </is>
       </c>
     </row>
@@ -2244,14 +2240,14 @@
         <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>0.5173502331327696</v>
+        <v>0.507938426477816</v>
       </c>
       <c r="Y19" t="n">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.563981</t>
+          <t>2025-10-23T11:30:00.766756</t>
         </is>
       </c>
     </row>
@@ -2338,14 +2334,14 @@
         <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>0.4918497783931735</v>
+        <v>0.4199949831636006</v>
       </c>
       <c r="Y20" t="n">
         <v>28</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.564982</t>
+          <t>2025-10-23T11:30:00.767283</t>
         </is>
       </c>
     </row>
@@ -2432,14 +2428,14 @@
         <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>0.3880304987479203</v>
+        <v>0.3482050932052023</v>
       </c>
       <c r="Y21" t="n">
         <v>96</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.564982</t>
+          <t>2025-10-23T11:30:00.767283</t>
         </is>
       </c>
     </row>
@@ -2526,14 +2522,14 @@
         <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>0.4130103185970559</v>
+        <v>0.5234963019255433</v>
       </c>
       <c r="Y22" t="n">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.564982</t>
+          <t>2025-10-23T11:30:00.767283</t>
         </is>
       </c>
     </row>
@@ -2617,13 +2613,17 @@
         <v>0.8629451990127563</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.5760935678030515</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>176</v>
+      </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.564982</t>
+          <t>2025-10-23T11:30:00.767283</t>
         </is>
       </c>
     </row>
@@ -2707,17 +2707,17 @@
         <v>0.8419739007949829</v>
       </c>
       <c r="W24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>0.3690142496053366</v>
+        <v>0.4208834758555635</v>
       </c>
       <c r="Y24" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.564982</t>
+          <t>2025-10-23T11:30:00.767283</t>
         </is>
       </c>
     </row>
@@ -2804,14 +2804,14 @@
         <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>0.439768480817761</v>
+        <v>0.478976303635114</v>
       </c>
       <c r="Y25" t="n">
         <v>27</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.564982</t>
+          <t>2025-10-23T11:30:00.767283</t>
         </is>
       </c>
     </row>
@@ -2898,14 +2898,14 @@
         <v>2</v>
       </c>
       <c r="X26" t="n">
-        <v>0.4544264498769271</v>
+        <v>0.4561869019374762</v>
       </c>
       <c r="Y26" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.564982</t>
+          <t>2025-10-23T11:30:00.767283</t>
         </is>
       </c>
     </row>
@@ -2989,13 +2989,17 @@
         <v>0.9463987350463867</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.4471969839497912</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>208</v>
+      </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.564982</t>
+          <t>2025-10-23T11:30:00.767283</t>
         </is>
       </c>
     </row>
@@ -3082,14 +3086,14 @@
         <v>1</v>
       </c>
       <c r="X28" t="n">
-        <v>0.5636029531844986</v>
+        <v>0.5223705789444759</v>
       </c>
       <c r="Y28" t="n">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.564982</t>
+          <t>2025-10-23T11:30:00.767283</t>
         </is>
       </c>
     </row>
@@ -3173,17 +3177,17 @@
         <v>0.9318329691886902</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>0.7248708096267586</v>
+        <v>0.371259567615395</v>
       </c>
       <c r="Y29" t="n">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.565981</t>
+          <t>2025-10-23T11:30:00.767283</t>
         </is>
       </c>
     </row>
@@ -3267,17 +3271,17 @@
         <v>0.8057762384414673</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.5885707141115961</v>
+        <v>0.4457596330983245</v>
       </c>
       <c r="Y30" t="n">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.565981</t>
+          <t>2025-10-23T11:30:00.767283</t>
         </is>
       </c>
     </row>
@@ -3361,13 +3365,17 @@
         <v>0.9030389785766602</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.4424678221356552</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>197</v>
+      </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.565981</t>
+          <t>2025-10-23T11:30:00.767283</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3465,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.565981</t>
+          <t>2025-10-23T11:30:00.767283</t>
         </is>
       </c>
     </row>
@@ -3541,17 +3549,17 @@
         <v>0.9293999671936035</v>
       </c>
       <c r="W33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X33" t="n">
-        <v>0.3807672342116082</v>
+        <v>0.4105786178142656</v>
       </c>
       <c r="Y33" t="n">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.565981</t>
+          <t>2025-10-23T11:30:00.772807</t>
         </is>
       </c>
     </row>
@@ -3635,13 +3643,17 @@
         <v>0.8813517093658447</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.4211919949562023</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>29</v>
+      </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.565981</t>
+          <t>2025-10-23T11:30:00.772807</t>
         </is>
       </c>
     </row>
@@ -3728,14 +3740,14 @@
         <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>0.5789654700855298</v>
+        <v>0.4190820232980823</v>
       </c>
       <c r="Y35" t="n">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.565981</t>
+          <t>2025-10-23T11:30:00.772807</t>
         </is>
       </c>
     </row>
@@ -3822,14 +3834,14 @@
         <v>2</v>
       </c>
       <c r="X36" t="n">
-        <v>0.4943424190778207</v>
+        <v>0.3944429850323898</v>
       </c>
       <c r="Y36" t="n">
         <v>172</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.565981</t>
+          <t>2025-10-23T11:30:00.772807</t>
         </is>
       </c>
     </row>
@@ -3916,14 +3928,14 @@
         <v>1</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4041168988591605</v>
+        <v>0.519579995762217</v>
       </c>
       <c r="Y37" t="n">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.565981</t>
+          <t>2025-10-23T11:30:00.772807</t>
         </is>
       </c>
     </row>
@@ -4007,17 +4019,13 @@
         <v>0.9516445398330688</v>
       </c>
       <c r="W38" t="n">
-        <v>2</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.4995480970097884</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>221</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.565981</t>
+          <t>2025-10-23T11:30:00.772807</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4115,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.566981</t>
+          <t>2025-10-23T11:30:00.772807</t>
         </is>
       </c>
     </row>
@@ -4194,14 +4202,14 @@
         <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4628711962152653</v>
+        <v>0.5302154051003889</v>
       </c>
       <c r="Y40" t="n">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.566981</t>
+          <t>2025-10-23T11:30:00.772807</t>
         </is>
       </c>
     </row>
@@ -4285,17 +4293,17 @@
         <v>0.8192246556282043</v>
       </c>
       <c r="W41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>0.5122486851695403</v>
+        <v>0.5689067697356303</v>
       </c>
       <c r="Y41" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.566981</t>
+          <t>2025-10-23T11:30:00.772807</t>
         </is>
       </c>
     </row>
@@ -4379,17 +4387,17 @@
         <v>0.7695175409317017</v>
       </c>
       <c r="W42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X42" t="n">
-        <v>0.4013904261062382</v>
+        <v>0.4592547011408165</v>
       </c>
       <c r="Y42" t="n">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.566981</t>
+          <t>2025-10-23T11:30:00.772807</t>
         </is>
       </c>
     </row>
@@ -4473,17 +4481,17 @@
         <v>0.9288102388381958</v>
       </c>
       <c r="W43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X43" t="n">
-        <v>0.5947511037682918</v>
+        <v>0.4675230342807256</v>
       </c>
       <c r="Y43" t="n">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.566981</t>
+          <t>2025-10-23T11:30:00.772807</t>
         </is>
       </c>
     </row>
@@ -4567,17 +4575,13 @@
         <v>0.8940186500549316</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0.5193700315892974</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.566981</t>
+          <t>2025-10-23T11:30:00.772807</t>
         </is>
       </c>
     </row>
@@ -4661,17 +4665,17 @@
         <v>0.7087023258209229</v>
       </c>
       <c r="W45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X45" t="n">
-        <v>0.4646405864041511</v>
+        <v>0.4833019895740732</v>
       </c>
       <c r="Y45" t="n">
         <v>157</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.566981</t>
+          <t>2025-10-23T11:30:00.772807</t>
         </is>
       </c>
     </row>
@@ -4755,17 +4759,17 @@
         <v>0.9666088819503784</v>
       </c>
       <c r="W46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X46" t="n">
-        <v>0.5361410903109534</v>
+        <v>0.5268702689402728</v>
       </c>
       <c r="Y46" t="n">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.721513</t>
+          <t>2025-10-23T11:30:00.885600</t>
         </is>
       </c>
     </row>
@@ -4852,14 +4856,14 @@
         <v>2</v>
       </c>
       <c r="X47" t="n">
-        <v>0.5616240759128834</v>
+        <v>0.5005358046457723</v>
       </c>
       <c r="Y47" t="n">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.722044</t>
+          <t>2025-10-23T11:30:00.885600</t>
         </is>
       </c>
     </row>
@@ -4943,17 +4947,17 @@
         <v>0.8459202647209167</v>
       </c>
       <c r="W48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X48" t="n">
-        <v>0.4834822006297558</v>
+        <v>0.44571000435946</v>
       </c>
       <c r="Y48" t="n">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.722044</t>
+          <t>2025-10-23T11:30:00.885600</t>
         </is>
       </c>
     </row>
@@ -5037,17 +5041,17 @@
         <v>0.8690372109413147</v>
       </c>
       <c r="W49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X49" t="n">
-        <v>0.5422299064876035</v>
+        <v>0.5815132947852186</v>
       </c>
       <c r="Y49" t="n">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.724038</t>
+          <t>2025-10-23T11:30:00.885600</t>
         </is>
       </c>
     </row>
@@ -5131,17 +5135,17 @@
         <v>0.944043755531311</v>
       </c>
       <c r="W50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X50" t="n">
-        <v>0.5995480970097884</v>
+        <v>0.5122554395138993</v>
       </c>
       <c r="Y50" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.724038</t>
+          <t>2025-10-23T11:30:00.886592</t>
         </is>
       </c>
     </row>
@@ -5225,17 +5229,17 @@
         <v>0.8622131943702698</v>
       </c>
       <c r="W51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X51" t="n">
-        <v>0.571671760962744</v>
+        <v>0.5391625613581763</v>
       </c>
       <c r="Y51" t="n">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.724038</t>
+          <t>2025-10-23T11:30:00.886592</t>
         </is>
       </c>
     </row>
@@ -5319,17 +5323,17 @@
         <v>0.9705619812011719</v>
       </c>
       <c r="W52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5675420211814656</v>
+        <v>0.4329311706285884</v>
       </c>
       <c r="Y52" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.724038</t>
+          <t>2025-10-23T11:30:00.886592</t>
         </is>
       </c>
     </row>
@@ -5413,17 +5417,17 @@
         <v>1.00090491771698</v>
       </c>
       <c r="W53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X53" t="n">
-        <v>0.5122486851695403</v>
+        <v>0.4275041888291987</v>
       </c>
       <c r="Y53" t="n">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.725039</t>
+          <t>2025-10-23T11:30:00.886592</t>
         </is>
       </c>
     </row>
@@ -5507,17 +5511,17 @@
         <v>0.9744760394096375</v>
       </c>
       <c r="W54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X54" t="n">
-        <v>0.5726206851751187</v>
+        <v>0.5381875476204931</v>
       </c>
       <c r="Y54" t="n">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.725039</t>
+          <t>2025-10-23T11:30:00.886592</t>
         </is>
       </c>
     </row>
@@ -5601,17 +5605,17 @@
         <v>0.8906868696212769</v>
       </c>
       <c r="W55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X55" t="n">
-        <v>0.519579995762217</v>
+        <v>0.5616240759128834</v>
       </c>
       <c r="Y55" t="n">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.725039</t>
+          <t>2025-10-23T11:30:00.887591</t>
         </is>
       </c>
     </row>
@@ -5695,17 +5699,13 @@
         <v>0.8637745380401611</v>
       </c>
       <c r="W56" t="n">
-        <v>3</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0.5470432238481544</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.726059</t>
+          <t>2025-10-23T11:30:00.887591</t>
         </is>
       </c>
     </row>
@@ -5792,14 +5792,14 @@
         <v>3</v>
       </c>
       <c r="X57" t="n">
-        <v>0.4646405864041511</v>
+        <v>0.4373140117772072</v>
       </c>
       <c r="Y57" t="n">
         <v>0</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.726059</t>
+          <t>2025-10-23T11:30:00.887591</t>
         </is>
       </c>
     </row>
@@ -5883,17 +5883,17 @@
         <v>0.7770419120788574</v>
       </c>
       <c r="W58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X58" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4153959819657586</v>
       </c>
       <c r="Y58" t="n">
         <v>200</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.726059</t>
+          <t>2025-10-23T11:30:00.887591</t>
         </is>
       </c>
     </row>
@@ -5977,17 +5977,17 @@
         <v>0.8776341676712036</v>
       </c>
       <c r="W59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X59" t="n">
-        <v>0.4770833005079832</v>
+        <v>0.5454543991712841</v>
       </c>
       <c r="Y59" t="n">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.726059</t>
+          <t>2025-10-23T11:30:00.887591</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.727035</t>
+          <t>2025-10-23T11:30:00.888591</t>
         </is>
       </c>
     </row>
@@ -6161,17 +6161,17 @@
         <v>0.7693681716918945</v>
       </c>
       <c r="W61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X61" t="n">
-        <v>0.405083825348819</v>
+        <v>0.5511102277086097</v>
       </c>
       <c r="Y61" t="n">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.727035</t>
+          <t>2025-10-23T11:30:00.888591</t>
         </is>
       </c>
     </row>
@@ -6258,14 +6258,14 @@
         <v>4</v>
       </c>
       <c r="X62" t="n">
-        <v>0.5964336686658871</v>
+        <v>0.5110401623198925</v>
       </c>
       <c r="Y62" t="n">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.727035</t>
+          <t>2025-10-23T11:30:00.888591</t>
         </is>
       </c>
     </row>
@@ -6355,7 +6355,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.727035</t>
+          <t>2025-10-23T11:30:00.889592</t>
         </is>
       </c>
     </row>
@@ -6445,7 +6445,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.727035</t>
+          <t>2025-10-23T11:30:00.891261</t>
         </is>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.728032</t>
+          <t>2025-10-23T11:30:00.891261</t>
         </is>
       </c>
     </row>
@@ -6622,14 +6622,14 @@
         <v>3</v>
       </c>
       <c r="X66" t="n">
-        <v>0.5005358046457723</v>
+        <v>0.4483704581800904</v>
       </c>
       <c r="Y66" t="n">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.728032</t>
+          <t>2025-10-23T11:30:00.892265</t>
         </is>
       </c>
     </row>
@@ -6713,17 +6713,13 @@
         <v>0.8631651401519775</v>
       </c>
       <c r="W67" t="n">
-        <v>4</v>
-      </c>
-      <c r="X67" t="n">
-        <v>0.4515883255430311</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.728032</t>
+          <t>2025-10-23T11:30:00.893288</t>
         </is>
       </c>
     </row>
@@ -6807,17 +6803,17 @@
         <v>0.900501012802124</v>
       </c>
       <c r="W68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X68" t="n">
-        <v>0.5290345580818899</v>
+        <v>0.5422299064876035</v>
       </c>
       <c r="Y68" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.728032</t>
+          <t>2025-10-23T11:30:00.893288</t>
         </is>
       </c>
     </row>
@@ -6901,17 +6897,17 @@
         <v>1.019912242889404</v>
       </c>
       <c r="W69" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X69" t="n">
-        <v>0.5381875476204931</v>
+        <v>0.5290345580818899</v>
       </c>
       <c r="Y69" t="n">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.728032</t>
+          <t>2025-10-23T11:30:00.893288</t>
         </is>
       </c>
     </row>
@@ -6995,17 +6991,17 @@
         <v>0.8339227437973022</v>
       </c>
       <c r="W70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X70" t="n">
-        <v>0.4895566329146183</v>
+        <v>0.4978905520555126</v>
       </c>
       <c r="Y70" t="n">
         <v>132</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.728032</t>
+          <t>2025-10-23T11:30:00.893288</t>
         </is>
       </c>
     </row>
@@ -7089,17 +7085,17 @@
         <v>0.9843544960021973</v>
       </c>
       <c r="W71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X71" t="n">
-        <v>0.4690142496053366</v>
+        <v>0.4437528439146141</v>
       </c>
       <c r="Y71" t="n">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.729034</t>
+          <t>2025-10-23T11:30:00.894267</t>
         </is>
       </c>
     </row>
@@ -7183,17 +7179,17 @@
         <v>0.9438962340354919</v>
       </c>
       <c r="W72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X72" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.5523239230657435</v>
       </c>
       <c r="Y72" t="n">
         <v>76</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.729034</t>
+          <t>2025-10-23T11:30:00.894267</t>
         </is>
       </c>
     </row>
@@ -7277,17 +7273,17 @@
         <v>0.8753290176391602</v>
       </c>
       <c r="W73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X73" t="n">
-        <v>0.4484319876554852</v>
+        <v>0.4073773894709066</v>
       </c>
       <c r="Y73" t="n">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.729034</t>
+          <t>2025-10-23T11:30:00.894267</t>
         </is>
       </c>
     </row>
@@ -7371,17 +7367,17 @@
         <v>0.9079642295837402</v>
       </c>
       <c r="W74" t="n">
+        <v>3</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.4226947042481178</v>
+      </c>
+      <c r="Y74" t="n">
         <v>4</v>
       </c>
-      <c r="X74" t="n">
-        <v>0.4705137712668338</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>12</v>
-      </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.729034</t>
+          <t>2025-10-23T11:30:00.894267</t>
         </is>
       </c>
     </row>
@@ -7465,17 +7461,17 @@
         <v>0.8243386745452881</v>
       </c>
       <c r="W75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X75" t="n">
-        <v>0.5116586907214196</v>
+        <v>0.5268702689402728</v>
       </c>
       <c r="Y75" t="n">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.795919</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -7559,17 +7555,17 @@
         <v>0.8935973644256592</v>
       </c>
       <c r="W76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X76" t="n">
-        <v>0.5616240759128834</v>
+        <v>0.4822074026636463</v>
       </c>
       <c r="Y76" t="n">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.795919</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -7653,17 +7649,17 @@
         <v>0.8615963459014893</v>
       </c>
       <c r="W77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X77" t="n">
-        <v>0.5443459042329746</v>
+        <v>0.44571000435946</v>
       </c>
       <c r="Y77" t="n">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.795919</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -7750,14 +7746,14 @@
         <v>3</v>
       </c>
       <c r="X78" t="n">
-        <v>0.5422299064876035</v>
+        <v>0.5815132947852186</v>
       </c>
       <c r="Y78" t="n">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.795919</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -7841,17 +7837,17 @@
         <v>0.86021888256073</v>
       </c>
       <c r="W79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X79" t="n">
-        <v>0.5995480970097884</v>
+        <v>0.5800836114326661</v>
       </c>
       <c r="Y79" t="n">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.795919</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -7935,17 +7931,17 @@
         <v>0.9020926952362061</v>
       </c>
       <c r="W80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X80" t="n">
-        <v>0.571671760962744</v>
+        <v>0.5391625613581763</v>
       </c>
       <c r="Y80" t="n">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.796923</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -8029,17 +8025,17 @@
         <v>0.8319921493530273</v>
       </c>
       <c r="W81" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X81" t="n">
-        <v>0.5675420211814656</v>
+        <v>0.4329311706285884</v>
       </c>
       <c r="Y81" t="n">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.796923</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8125,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.796923</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -8216,14 +8212,14 @@
         <v>4</v>
       </c>
       <c r="X83" t="n">
-        <v>0.5122486851695403</v>
+        <v>0.4275041888291987</v>
       </c>
       <c r="Y83" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.796923</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -8307,17 +8303,17 @@
         <v>0.7883688807487488</v>
       </c>
       <c r="W84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X84" t="n">
-        <v>0.4727259204758588</v>
+        <v>0.5381875476204931</v>
       </c>
       <c r="Y84" t="n">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.796923</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -8407,7 +8403,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.796923</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -8491,17 +8487,17 @@
         <v>0.7766159772872925</v>
       </c>
       <c r="W86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X86" t="n">
-        <v>0.519579995762217</v>
+        <v>0.5616240759128834</v>
       </c>
       <c r="Y86" t="n">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.796923</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8587,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.796923</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -8675,17 +8671,13 @@
         <v>0.8702595829963684</v>
       </c>
       <c r="W88" t="n">
-        <v>4</v>
-      </c>
-      <c r="X88" t="n">
-        <v>0.5470432238481544</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.796923</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -8772,14 +8764,14 @@
         <v>3</v>
       </c>
       <c r="X89" t="n">
-        <v>0.4646405864041511</v>
+        <v>0.4373140117772072</v>
       </c>
       <c r="Y89" t="n">
         <v>95</v>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.797917</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -8863,17 +8855,17 @@
         <v>0.914580225944519</v>
       </c>
       <c r="W90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X90" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4153959819657586</v>
       </c>
       <c r="Y90" t="n">
         <v>24</v>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.797917</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -8957,17 +8949,17 @@
         <v>0.9282395839691162</v>
       </c>
       <c r="W91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X91" t="n">
-        <v>0.4770833005079832</v>
+        <v>0.5454543991712841</v>
       </c>
       <c r="Y91" t="n">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.797917</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -9054,14 +9046,14 @@
         <v>3</v>
       </c>
       <c r="X92" t="n">
-        <v>0.405083825348819</v>
+        <v>0.5511102277086097</v>
       </c>
       <c r="Y92" t="n">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.797917</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -9145,17 +9137,17 @@
         <v>0.8197160959243774</v>
       </c>
       <c r="W93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X93" t="n">
-        <v>0.5964336686658871</v>
+        <v>0.5110401623198925</v>
       </c>
       <c r="Y93" t="n">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.797917</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -9242,14 +9234,14 @@
         <v>4</v>
       </c>
       <c r="X94" t="n">
-        <v>0.5264611661187159</v>
+        <v>0.4483704581800904</v>
       </c>
       <c r="Y94" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.797917</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -9339,7 +9331,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.797917</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -9423,17 +9415,17 @@
         <v>0.9983855485916138</v>
       </c>
       <c r="W96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X96" t="n">
-        <v>0.4515883255430311</v>
+        <v>0.5849387236557125</v>
       </c>
       <c r="Y96" t="n">
         <v>213</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.797917</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -9517,17 +9509,17 @@
         <v>0.8372279405593872</v>
       </c>
       <c r="W97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X97" t="n">
-        <v>0.5290345580818899</v>
+        <v>0.5422299064876035</v>
       </c>
       <c r="Y97" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.798916</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -9611,17 +9603,17 @@
         <v>0.8285858631134033</v>
       </c>
       <c r="W98" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X98" t="n">
-        <v>0.4521658349660818</v>
+        <v>0.5290345580818899</v>
       </c>
       <c r="Y98" t="n">
         <v>232</v>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.798916</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9703,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.798916</t>
+          <t>2025-10-23T11:30:00.952971</t>
         </is>
       </c>
     </row>
@@ -9798,14 +9790,14 @@
         <v>5</v>
       </c>
       <c r="X100" t="n">
-        <v>0.4895566329146183</v>
+        <v>0.4978905520555126</v>
       </c>
       <c r="Y100" t="n">
         <v>230</v>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.798916</t>
+          <t>2025-10-23T11:30:00.958987</t>
         </is>
       </c>
     </row>
@@ -9889,17 +9881,17 @@
         <v>0.8773653507232666</v>
       </c>
       <c r="W101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X101" t="n">
-        <v>0.4690142496053366</v>
+        <v>0.4437528439146141</v>
       </c>
       <c r="Y101" t="n">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.798916</t>
+          <t>2025-10-23T11:30:00.958987</t>
         </is>
       </c>
     </row>
@@ -9983,17 +9975,17 @@
         <v>0.9761165380477905</v>
       </c>
       <c r="W102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X102" t="n">
-        <v>0.4557742705184364</v>
+        <v>0.4678059582097401</v>
       </c>
       <c r="Y102" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.798916</t>
+          <t>2025-10-23T11:30:00.958987</t>
         </is>
       </c>
     </row>
@@ -10080,14 +10072,14 @@
         <v>12</v>
       </c>
       <c r="X103" t="n">
-        <v>0.5989101021594682</v>
+        <v>0.510552993367098</v>
       </c>
       <c r="Y103" t="n">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.858420</t>
+          <t>2025-10-23T11:30:00.984964</t>
         </is>
       </c>
     </row>
@@ -10171,17 +10163,17 @@
         <v>0.9268039464950562</v>
       </c>
       <c r="W104" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X104" t="n">
-        <v>0.4971227507172453</v>
+        <v>0.4700156815389351</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.858420</t>
+          <t>2025-10-23T11:30:00.984964</t>
         </is>
       </c>
     </row>
@@ -10265,17 +10257,17 @@
         <v>0.8423166275024414</v>
       </c>
       <c r="W105" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="X105" t="n">
-        <v>0.4048631932862908</v>
+        <v>0.5144008398418366</v>
       </c>
       <c r="Y105" t="n">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.858420</t>
+          <t>2025-10-23T11:30:00.984964</t>
         </is>
       </c>
     </row>
@@ -10365,7 +10357,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.858420</t>
+          <t>2025-10-23T11:30:00.984964</t>
         </is>
       </c>
     </row>
@@ -10449,17 +10441,17 @@
         <v>0.798094630241394</v>
       </c>
       <c r="W107" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X107" t="n">
-        <v>0.4770195457203851</v>
+        <v>0.5774172848530235</v>
       </c>
       <c r="Y107" t="n">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.858961</t>
+          <t>2025-10-23T11:30:00.984964</t>
         </is>
       </c>
     </row>
@@ -10543,17 +10535,17 @@
         <v>0.7900158166885376</v>
       </c>
       <c r="W108" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="X108" t="n">
-        <v>0.5960663167432091</v>
+        <v>0.5766988044532517</v>
       </c>
       <c r="Y108" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.858961</t>
+          <t>2025-10-23T11:30:00.984964</t>
         </is>
       </c>
     </row>
@@ -10637,17 +10629,17 @@
         <v>0.7014325857162476</v>
       </c>
       <c r="W109" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X109" t="n">
-        <v>0.497348430591891</v>
+        <v>0.5391625613581763</v>
       </c>
       <c r="Y109" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.858961</t>
+          <t>2025-10-23T11:30:00.984964</t>
         </is>
       </c>
     </row>
@@ -10731,17 +10723,17 @@
         <v>0.8663618564605713</v>
       </c>
       <c r="W110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X110" t="n">
-        <v>0.4557742705184364</v>
+        <v>0.4678059582097401</v>
       </c>
       <c r="Y110" t="n">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.858961</t>
+          <t>2025-10-23T11:30:00.984964</t>
         </is>
       </c>
     </row>
@@ -10825,17 +10817,17 @@
         <v>0.9561348557472229</v>
       </c>
       <c r="W111" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X111" t="n">
-        <v>0.4868788731020857</v>
+        <v>0.5299265798094429</v>
       </c>
       <c r="Y111" t="n">
         <v>47</v>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.859479</t>
+          <t>2025-10-23T11:30:00.984964</t>
         </is>
       </c>
     </row>
@@ -10919,17 +10911,17 @@
         <v>0.8803392648696899</v>
       </c>
       <c r="W112" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X112" t="n">
-        <v>0.5947327673510634</v>
+        <v>0.5906143694047906</v>
       </c>
       <c r="Y112" t="n">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:18.859479</t>
+          <t>2025-10-23T11:30:00.984964</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
@@ -665,7 +665,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.760629</t>
+          <t>2025-10-23T12:46:00.730132</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.760629</t>
+          <t>2025-10-23T12:46:00.730132</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.761666</t>
+          <t>2025-10-23T12:46:00.730132</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.761666</t>
+          <t>2025-10-23T12:46:00.731129</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.761666</t>
+          <t>2025-10-23T12:46:00.731393</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.761666</t>
+          <t>2025-10-23T12:46:00.731393</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.761666</t>
+          <t>2025-10-23T12:46:00.731393</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.761666</t>
+          <t>2025-10-23T12:46:00.731393</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.761666</t>
+          <t>2025-10-23T12:46:00.731393</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.761666</t>
+          <t>2025-10-23T12:46:00.731393</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.763493</t>
+          <t>2025-10-23T12:46:00.732400</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.763493</t>
+          <t>2025-10-23T12:46:00.732400</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.764046</t>
+          <t>2025-10-23T12:46:00.732400</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.764046</t>
+          <t>2025-10-23T12:46:00.732400</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.766195</t>
+          <t>2025-10-23T12:46:00.732400</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.766727</t>
+          <t>2025-10-23T12:46:00.732400</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.766756</t>
+          <t>2025-10-23T12:46:00.732400</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.766756</t>
+          <t>2025-10-23T12:46:00.733397</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.767283</t>
+          <t>2025-10-23T12:46:00.733397</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.767283</t>
+          <t>2025-10-23T12:46:00.733397</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.767283</t>
+          <t>2025-10-23T12:46:00.733397</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.767283</t>
+          <t>2025-10-23T12:46:00.733397</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.767283</t>
+          <t>2025-10-23T12:46:00.733397</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.767283</t>
+          <t>2025-10-23T12:46:00.733397</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.767283</t>
+          <t>2025-10-23T12:46:00.733397</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.767283</t>
+          <t>2025-10-23T12:46:00.733397</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.767283</t>
+          <t>2025-10-23T12:46:00.734396</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.767283</t>
+          <t>2025-10-23T12:46:00.734503</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.767283</t>
+          <t>2025-10-23T12:46:00.734503</t>
         </is>
       </c>
     </row>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.767283</t>
+          <t>2025-10-23T12:46:00.734503</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.767283</t>
+          <t>2025-10-23T12:46:00.734503</t>
         </is>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.772807</t>
+          <t>2025-10-23T12:46:00.734503</t>
         </is>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.772807</t>
+          <t>2025-10-23T12:46:00.734503</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.772807</t>
+          <t>2025-10-23T12:46:00.734503</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.772807</t>
+          <t>2025-10-23T12:46:00.774946</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.772807</t>
+          <t>2025-10-23T12:46:00.774946</t>
         </is>
       </c>
     </row>
@@ -4025,7 +4025,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.772807</t>
+          <t>2025-10-23T12:46:00.774946</t>
         </is>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.772807</t>
+          <t>2025-10-23T12:46:00.774946</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.772807</t>
+          <t>2025-10-23T12:46:00.774946</t>
         </is>
       </c>
     </row>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.772807</t>
+          <t>2025-10-23T12:46:00.774946</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.772807</t>
+          <t>2025-10-23T12:46:00.774946</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.772807</t>
+          <t>2025-10-23T12:46:00.774946</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.772807</t>
+          <t>2025-10-23T12:46:00.774946</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.772807</t>
+          <t>2025-10-23T12:46:00.774946</t>
         </is>
       </c>
     </row>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.885600</t>
+          <t>2025-10-23T12:46:00.883853</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.885600</t>
+          <t>2025-10-23T12:46:00.883853</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.885600</t>
+          <t>2025-10-23T12:46:00.884852</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.885600</t>
+          <t>2025-10-23T12:46:00.884852</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.886592</t>
+          <t>2025-10-23T12:46:00.884852</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.886592</t>
+          <t>2025-10-23T12:46:00.884852</t>
         </is>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.886592</t>
+          <t>2025-10-23T12:46:00.885850</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.886592</t>
+          <t>2025-10-23T12:46:00.885850</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.886592</t>
+          <t>2025-10-23T12:46:00.885850</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.887591</t>
+          <t>2025-10-23T12:46:00.885850</t>
         </is>
       </c>
     </row>
@@ -5705,7 +5705,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.887591</t>
+          <t>2025-10-23T12:46:00.886849</t>
         </is>
       </c>
     </row>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.887591</t>
+          <t>2025-10-23T12:46:00.886849</t>
         </is>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.887591</t>
+          <t>2025-10-23T12:46:00.886849</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.887591</t>
+          <t>2025-10-23T12:46:00.886849</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.888591</t>
+          <t>2025-10-23T12:46:00.886849</t>
         </is>
       </c>
     </row>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.888591</t>
+          <t>2025-10-23T12:46:00.887850</t>
         </is>
       </c>
     </row>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.888591</t>
+          <t>2025-10-23T12:46:00.887850</t>
         </is>
       </c>
     </row>
@@ -6355,7 +6355,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.889592</t>
+          <t>2025-10-23T12:46:00.887850</t>
         </is>
       </c>
     </row>
@@ -6445,7 +6445,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.891261</t>
+          <t>2025-10-23T12:46:00.887850</t>
         </is>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.891261</t>
+          <t>2025-10-23T12:46:00.887850</t>
         </is>
       </c>
     </row>
@@ -6629,7 +6629,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.892265</t>
+          <t>2025-10-23T12:46:00.888850</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.893288</t>
+          <t>2025-10-23T12:46:00.888850</t>
         </is>
       </c>
     </row>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.893288</t>
+          <t>2025-10-23T12:46:00.888850</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.893288</t>
+          <t>2025-10-23T12:46:00.888850</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.893288</t>
+          <t>2025-10-23T12:46:00.888850</t>
         </is>
       </c>
     </row>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.894267</t>
+          <t>2025-10-23T12:46:00.889849</t>
         </is>
       </c>
     </row>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.894267</t>
+          <t>2025-10-23T12:46:00.889849</t>
         </is>
       </c>
     </row>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.894267</t>
+          <t>2025-10-23T12:46:00.889849</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.894267</t>
+          <t>2025-10-23T12:46:00.889849</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -7659,7 +7659,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -8587,7 +8587,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -8677,7 +8677,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -9053,7 +9053,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -9147,7 +9147,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -9331,7 +9331,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -9425,7 +9425,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -9703,7 +9703,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.952971</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -9797,7 +9797,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.958987</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.958987</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -9985,7 +9985,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.958987</t>
+          <t>2025-10-23T12:46:00.976412</t>
         </is>
       </c>
     </row>
@@ -10079,7 +10079,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.984964</t>
+          <t>2025-10-23T12:46:01.009176</t>
         </is>
       </c>
     </row>
@@ -10173,7 +10173,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.984964</t>
+          <t>2025-10-23T12:46:01.009176</t>
         </is>
       </c>
     </row>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.984964</t>
+          <t>2025-10-23T12:46:01.009176</t>
         </is>
       </c>
     </row>
@@ -10357,7 +10357,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.984964</t>
+          <t>2025-10-23T12:46:01.009176</t>
         </is>
       </c>
     </row>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.984964</t>
+          <t>2025-10-23T12:46:01.009176</t>
         </is>
       </c>
     </row>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.984964</t>
+          <t>2025-10-23T12:46:01.009176</t>
         </is>
       </c>
     </row>
@@ -10639,7 +10639,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.984964</t>
+          <t>2025-10-23T12:46:01.009176</t>
         </is>
       </c>
     </row>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.984964</t>
+          <t>2025-10-23T12:46:01.009176</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.984964</t>
+          <t>2025-10-23T12:46:01.009176</t>
         </is>
       </c>
     </row>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:00.984964</t>
+          <t>2025-10-23T12:46:01.009176</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z68"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,13 +653,17 @@
         <v>2.190941718315478</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.5361410903109534</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>80</v>
+      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.874130</t>
+          <t>2025-10-29T23:40:43.527204</t>
         </is>
       </c>
     </row>
@@ -751,7 +755,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.874130</t>
+          <t>2025-10-29T23:40:43.527204</t>
         </is>
       </c>
     </row>
@@ -843,7 +847,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.874130</t>
+          <t>2025-10-29T23:40:43.527204</t>
         </is>
       </c>
     </row>
@@ -935,7 +939,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.874130</t>
+          <t>2025-10-29T23:40:43.527204</t>
         </is>
       </c>
     </row>
@@ -1017,13 +1021,17 @@
         <v>2.734093474151742</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.5995480970097884</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12</v>
+      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.874130</t>
+          <t>2025-10-29T23:40:43.527204</t>
         </is>
       </c>
     </row>
@@ -1105,13 +1113,17 @@
         <v>2.522431984715968</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.4161706652665431</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4</v>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.874130</t>
+          <t>2025-10-29T23:40:43.527204</t>
         </is>
       </c>
     </row>
@@ -1193,17 +1205,17 @@
         <v>2.809679035821078</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4628711962152653</v>
+        <v>0.5424541179848884</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.874130</t>
+          <t>2025-10-29T23:40:43.528204</t>
         </is>
       </c>
     </row>
@@ -1285,17 +1297,17 @@
         <v>2.602037718936664</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5122486851695403</v>
+        <v>0.4834822006297558</v>
       </c>
       <c r="Y9" t="n">
         <v>6</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.874130</t>
+          <t>2025-10-29T23:40:43.528204</t>
         </is>
       </c>
     </row>
@@ -1377,17 +1389,17 @@
         <v>3.039758409741188</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4661796049705298</v>
+        <v>0.4013904261062382</v>
       </c>
       <c r="Y10" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.874130</t>
+          <t>2025-10-29T23:40:43.531685</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1491,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.874130</t>
+          <t>2025-10-29T23:40:43.531685</t>
         </is>
       </c>
     </row>
@@ -1561,17 +1573,17 @@
         <v>2.653049376414398</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>0.5202230023486417</v>
+        <v>0.4244175909401347</v>
       </c>
       <c r="Y12" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.874130</t>
+          <t>2025-10-29T23:40:43.531685</t>
         </is>
       </c>
     </row>
@@ -1653,17 +1665,17 @@
         <v>2.72135524065598</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X13" t="n">
-        <v>0.4582458280396084</v>
+        <v>0.4646405864041511</v>
       </c>
       <c r="Y13" t="n">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.874130</t>
+          <t>2025-10-29T23:40:43.531685</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1767,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.874130</t>
+          <t>2025-10-29T23:40:43.532681</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1859,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.875125</t>
+          <t>2025-10-29T23:40:43.532681</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1951,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.875125</t>
+          <t>2025-10-29T23:40:43.532681</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2043,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.875125</t>
+          <t>2025-10-29T23:40:43.532681</t>
         </is>
       </c>
     </row>
@@ -2113,13 +2125,17 @@
         <v>2.868397494999292</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.5924894589884222</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>140</v>
+      </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.875125</t>
+          <t>2025-10-29T23:40:43.532681</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2227,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.875125</t>
+          <t>2025-10-29T23:40:43.532681</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2319,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.875125</t>
+          <t>2025-10-29T23:40:43.532681</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2411,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.875125</t>
+          <t>2025-10-29T23:40:43.532681</t>
         </is>
       </c>
     </row>
@@ -2477,13 +2493,17 @@
         <v>2.338588620365942</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.4895566329146183</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>58</v>
+      </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.875125</t>
+          <t>2025-10-29T23:40:43.532681</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2591,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.875125</t>
+          <t>2025-10-29T23:40:43.532681</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2683,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.875125</t>
+          <t>2025-10-29T23:40:43.532681</t>
         </is>
       </c>
     </row>
@@ -2745,17 +2765,17 @@
         <v>2.509745911134659</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X25" t="n">
-        <v>0.439768480817761</v>
+        <v>0.4807672342116082</v>
       </c>
       <c r="Y25" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.875125</t>
+          <t>2025-10-29T23:40:43.533679</t>
         </is>
       </c>
     </row>
@@ -2837,17 +2857,17 @@
         <v>3.048624406211186</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X26" t="n">
-        <v>0.521406849537337</v>
+        <v>0.4544264498769271</v>
       </c>
       <c r="Y26" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.875125</t>
+          <t>2025-10-29T23:40:43.533679</t>
         </is>
       </c>
     </row>
@@ -2939,7 +2959,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.875125</t>
+          <t>2025-10-29T23:40:43.533679</t>
         </is>
       </c>
     </row>
@@ -3021,17 +3041,17 @@
         <v>2.637816155910691</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X28" t="n">
-        <v>0.5852601757026697</v>
+        <v>0.5953229911665305</v>
       </c>
       <c r="Y28" t="n">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.875125</t>
+          <t>2025-10-29T23:40:43.533679</t>
         </is>
       </c>
     </row>
@@ -3113,17 +3133,17 @@
         <v>2.708857731735163</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X29" t="n">
-        <v>0.4244076469689558</v>
+        <v>0.4690142496053366</v>
       </c>
       <c r="Y29" t="n">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.875125</t>
+          <t>2025-10-29T23:40:43.533679</t>
         </is>
       </c>
     </row>
@@ -3205,17 +3225,17 @@
         <v>2.14970922938393</v>
       </c>
       <c r="W30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
-        <v>0.5361410903109534</v>
+        <v>0.5797108377054159</v>
       </c>
       <c r="Y30" t="n">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.893344</t>
+          <t>2025-10-29T23:40:43.556941</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3327,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.893344</t>
+          <t>2025-10-29T23:40:43.557941</t>
         </is>
       </c>
     </row>
@@ -3389,17 +3409,17 @@
         <v>2.518933503413312</v>
       </c>
       <c r="W32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X32" t="n">
-        <v>0.4834822006297558</v>
+        <v>0.5712648583756185</v>
       </c>
       <c r="Y32" t="n">
         <v>30</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.893344</t>
+          <t>2025-10-29T23:40:43.557941</t>
         </is>
       </c>
     </row>
@@ -3481,17 +3501,17 @@
         <v>2.614457382409244</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X33" t="n">
-        <v>0.4648690042010548</v>
+        <v>0.5381875476204931</v>
       </c>
       <c r="Y33" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.893344</t>
+          <t>2025-10-29T23:40:43.557941</t>
         </is>
       </c>
     </row>
@@ -3573,17 +3593,17 @@
         <v>2.746833408509016</v>
       </c>
       <c r="W34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X34" t="n">
-        <v>0.4895566329146183</v>
+        <v>0.576527268637868</v>
       </c>
       <c r="Y34" t="n">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.893344</t>
+          <t>2025-10-29T23:40:43.557941</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3691,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.893344</t>
+          <t>2025-10-29T23:40:43.557941</t>
         </is>
       </c>
     </row>
@@ -3753,17 +3773,17 @@
         <v>2.604472851761478</v>
       </c>
       <c r="W36" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X36" t="n">
-        <v>0.4690142496053366</v>
+        <v>0.5284063292308575</v>
       </c>
       <c r="Y36" t="n">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.893344</t>
+          <t>2025-10-29T23:40:43.557941</t>
         </is>
       </c>
     </row>
@@ -3851,7 +3871,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.893344</t>
+          <t>2025-10-29T23:40:43.557941</t>
         </is>
       </c>
     </row>
@@ -3933,17 +3953,17 @@
         <v>2.615401724309052</v>
       </c>
       <c r="W38" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X38" t="n">
-        <v>0.5424541179848884</v>
+        <v>0.4557742705184364</v>
       </c>
       <c r="Y38" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.893344</t>
+          <t>2025-10-29T23:40:43.557941</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4051,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.893344</t>
+          <t>2025-10-29T23:40:43.557941</t>
         </is>
       </c>
     </row>
@@ -4113,17 +4133,17 @@
         <v>2.871734863806268</v>
       </c>
       <c r="W40" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4807672342116082</v>
+        <v>0.4484319876554852</v>
       </c>
       <c r="Y40" t="n">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.893344</t>
+          <t>2025-10-29T23:40:43.558987</t>
         </is>
       </c>
     </row>
@@ -4205,17 +4225,17 @@
         <v>2.592601396617193</v>
       </c>
       <c r="W41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4705137712668338</v>
+        <v>0.4418143241475427</v>
       </c>
       <c r="Y41" t="n">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.893344</t>
+          <t>2025-10-29T23:40:43.558987</t>
         </is>
       </c>
     </row>
@@ -4297,17 +4317,17 @@
         <v>3.578119410463019</v>
       </c>
       <c r="W42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X42" t="n">
-        <v>0.487867300373154</v>
+        <v>0.5033271782542028</v>
       </c>
       <c r="Y42" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.893344</t>
+          <t>2025-10-29T23:40:43.559518</t>
         </is>
       </c>
     </row>
@@ -4389,13 +4409,17 @@
         <v>2.932366845315486</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.4641560129943472</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>50</v>
+      </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.904651</t>
+          <t>2025-10-29T23:40:43.594728</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4511,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.594728</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4603,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.595730</t>
         </is>
       </c>
     </row>
@@ -4661,17 +4685,17 @@
         <v>3.890401556091606</v>
       </c>
       <c r="W46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4648690042010548</v>
+        <v>0.5881046528979208</v>
       </c>
       <c r="Y46" t="n">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.595730</t>
         </is>
       </c>
     </row>
@@ -4753,17 +4777,17 @@
         <v>2.788220884829319</v>
       </c>
       <c r="W47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X47" t="n">
-        <v>0.4239730734667366</v>
+        <v>0.4895566329146183</v>
       </c>
       <c r="Y47" t="n">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.595730</t>
         </is>
       </c>
     </row>
@@ -4845,13 +4869,17 @@
         <v>3.584518222759909</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.571671760962744</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>61</v>
+      </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.596732</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4971,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.596732</t>
         </is>
       </c>
     </row>
@@ -5025,17 +5053,17 @@
         <v>2.678611532571649</v>
       </c>
       <c r="W50" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X50" t="n">
-        <v>0.4834822006297558</v>
+        <v>0.5675420211814656</v>
       </c>
       <c r="Y50" t="n">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.596732</t>
         </is>
       </c>
     </row>
@@ -5127,7 +5155,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.596732</t>
         </is>
       </c>
     </row>
@@ -5209,17 +5237,17 @@
         <v>2.792453664839646</v>
       </c>
       <c r="W52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5829919351087561</v>
+        <v>0.561900209227943</v>
       </c>
       <c r="Y52" t="n">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.596732</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5335,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.596732</t>
         </is>
       </c>
     </row>
@@ -5389,17 +5417,17 @@
         <v>2.689012529375737</v>
       </c>
       <c r="W54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X54" t="n">
-        <v>0.5636029531844986</v>
+        <v>0.5953229911665305</v>
       </c>
       <c r="Y54" t="n">
         <v>121</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.596732</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5515,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.596732</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5603,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.597731</t>
         </is>
       </c>
     </row>
@@ -5657,17 +5685,17 @@
         <v>2.481265566515748</v>
       </c>
       <c r="W57" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X57" t="n">
-        <v>0.4436880874433667</v>
+        <v>0.4440482095131097</v>
       </c>
       <c r="Y57" t="n">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.597731</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5787,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.597731</t>
         </is>
       </c>
     </row>
@@ -5841,17 +5869,17 @@
         <v>3.02183092381192</v>
       </c>
       <c r="W59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X59" t="n">
-        <v>0.4544264498769271</v>
+        <v>0.450783082786869</v>
       </c>
       <c r="Y59" t="n">
         <v>144</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.905166</t>
+          <t>2025-10-29T23:40:43.597731</t>
         </is>
       </c>
     </row>
@@ -5943,716 +5971,12 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-27T20:45:00.906171</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>23</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4</v>
-      </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>7</v>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="b">
-        <v>1</v>
-      </c>
-      <c r="O61" t="b">
-        <v>1</v>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>[11, 107, 108, 50, 31, 6, 17]</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>[2.0450439453125, 2.39786434173584, 2.5406486988067627, 2.7599363327026367, 2.763245105743408, 2.774099111557007, 2.8216850757598877]</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>[111, 122, 58, 49, 74, 29, 32]</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>[2.978161573410034, 4.0501909255981445, 4.2081098556518555, 4.714849472045898, 4.798360824584961, 5.375450611114502, 5.376267433166504]</t>
-        </is>
-      </c>
-      <c r="U61" t="n">
-        <v>5</v>
-      </c>
-      <c r="V61" t="n">
-        <v>2.768672080531099</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:45:00.926227</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>29</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4</v>
-      </c>
-      <c r="D62" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>7</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="b">
-        <v>1</v>
-      </c>
-      <c r="O62" t="b">
-        <v>1</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>[0, 122, 50, 20, 100, 149, 108]</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>[3.3233187198638916, 4.059734344482422, 4.167458534240723, 4.20436429977417, 4.278962135314941, 4.5680131912231445, 4.604304790496826]</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>[122, 49, 111, 32, 23, 58, 74]</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>[4.059734344482422, 4.712945938110352, 4.923409938812256, 5.225722312927246, 5.375450611114502, 6.480259418487549, 7.0887932777404785]</t>
-        </is>
-      </c>
-      <c r="U62" t="n">
-        <v>5</v>
-      </c>
-      <c r="V62" t="n">
-        <v>4.423487704427647</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:45:00.926227</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>32</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4</v>
-      </c>
-      <c r="D63" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>7</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.8631205685666311</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="b">
-        <v>0</v>
-      </c>
-      <c r="O63" t="b">
-        <v>1</v>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>[152, 111, 100, 50, 3, 16, 49]</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>[0, 1, 0, 0, 0, 0, 1]</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>[3.581364870071411, 3.782494068145752, 3.862605571746826, 3.9095888137817383, 3.9325404167175293, 3.952988386154175, 3.967590808868408]</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>[111, 49, 29, 23, 122, 58, 74]</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>[3.782494068145752, 3.967590808868408, 5.225722312927246, 5.376267433166504, 5.447623252868652, 5.880111217498779, 6.302395343780518]</t>
-        </is>
-      </c>
-      <c r="U63" t="n">
-        <v>5</v>
-      </c>
-      <c r="V63" t="n">
-        <v>3.942764340343448</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:45:00.926227</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>49</v>
-      </c>
-      <c r="C64" t="n">
-        <v>4</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>7</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="b">
-        <v>1</v>
-      </c>
-      <c r="O64" t="b">
-        <v>1</v>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>[0, 111, 100, 57, 108, 11, 50]</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>[2.7044990062713623, 2.744593620300293, 3.03739595413208, 3.6008496284484863, 3.601428508758545, 3.613584280014038, 3.7613816261291504]</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>[111, 32, 29, 23, 58, 122, 74]</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>[2.744593620300293, 3.967590808868408, 4.712945938110352, 4.714849472045898, 5.023791790008545, 5.143283843994141, 5.44774866104126]</t>
-        </is>
-      </c>
-      <c r="U64" t="n">
-        <v>5</v>
-      </c>
-      <c r="V64" t="n">
-        <v>3.607506255979379</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:45:00.926227</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>58</v>
-      </c>
-      <c r="C65" t="n">
-        <v>4</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>7</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="b">
-        <v>1</v>
-      </c>
-      <c r="O65" t="b">
-        <v>1</v>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>[116, 125, 6, 30, 144, 111, 80]</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>[2.321561098098755, 2.989548683166504, 2.9944894313812256, 3.028784990310669, 3.167263984680176, 3.3404667377471924, 3.3468122482299805]</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>[111, 74, 23, 49, 122, 32, 29]</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>[3.3404667377471924, 3.7469117641448975, 4.2081098556518555, 5.023791790008545, 5.170320510864258, 5.880111217498779, 6.480259418487549]</t>
-        </is>
-      </c>
-      <c r="U65" t="n">
-        <v>5</v>
-      </c>
-      <c r="V65" t="n">
-        <v>3.253865426930863</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:45:00.926227</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>74</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4</v>
-      </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>7</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="b">
-        <v>1</v>
-      </c>
-      <c r="O66" t="b">
-        <v>1</v>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>[15, 151, 26, 116, 134, 79, 6]</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>[2.989654302597046, 3.279348850250244, 3.4450466632843018, 3.4723429679870605, 3.5377962589263916, 3.582503318786621, 3.678356170654297]</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>[58, 111, 23, 49, 122, 32, 29]</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>[3.7469117641448975, 4.177338600158691, 4.798360824584961, 5.44774866104126, 5.6261515617370605, 6.302395343780518, 7.0887932777404785]</t>
-        </is>
-      </c>
-      <c r="U66" t="n">
-        <v>5</v>
-      </c>
-      <c r="V66" t="n">
-        <v>3.560149868900698</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:45:00.926227</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>111</v>
-      </c>
-      <c r="C67" t="n">
-        <v>4</v>
-      </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>7</v>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="b">
-        <v>1</v>
-      </c>
-      <c r="O67" t="b">
-        <v>1</v>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>[108, 11, 100, 50, 26, 30, 57]</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>[1.7137212753295898, 1.8753184080123901, 1.9820659160614014, 2.4990010261535645, 2.7067956924438477, 2.70947003364563, 2.71624755859375]</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>[49, 23, 58, 32, 122, 74, 29]</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>[2.744593620300293, 2.978161573410034, 3.3404667377471924, 3.782494068145752, 4.119991302490234, 4.177338600158691, 4.923409938812256]</t>
-        </is>
-      </c>
-      <c r="U67" t="n">
-        <v>5</v>
-      </c>
-      <c r="V67" t="n">
-        <v>2.708132966629896</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:45:00.926227</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>heart</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>122</v>
-      </c>
-      <c r="C68" t="n">
-        <v>4</v>
-      </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>7</v>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.5916727785823274</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>entropia</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="b">
-        <v>1</v>
-      </c>
-      <c r="O68" t="b">
-        <v>1</v>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>[143, 108, 100, 118, 151, 20, 30]</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>[3.4728429317474365, 3.7831006050109863, 3.8177778720855713, 3.835824966430664, 3.876563787460327, 3.8958423137664795, 4.041891574859619]</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>[23, 29, 111, 49, 58, 32, 74]</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>[4.0501909255981445, 4.059734344482422, 4.119991302490234, 5.143283843994141, 5.170320510864258, 5.447623252868652, 5.6261515617370605]</t>
-        </is>
-      </c>
-      <c r="U68" t="n">
-        <v>5</v>
-      </c>
-      <c r="V68" t="n">
-        <v>3.886202969266358</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>2025-10-27T20:45:00.926227</t>
+          <t>2025-10-29T23:40:43.597731</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:Z68">
+  <conditionalFormatting sqref="A2:Z60">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>=$D2=FALSE</formula>
     </cfRule>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D25_R75_Pentropia.xlsx
@@ -598,7 +598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="b">
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.622339</t>
+          <t>2025-11-13T06:52:42.609620</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -686,7 +686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -700,11 +700,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -741,13 +741,17 @@
         <v>1.714441116937857</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.4186205535611799</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>221</v>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.623343</t>
+          <t>2025-11-13T06:52:42.609620</t>
         </is>
       </c>
     </row>
@@ -774,7 +778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -788,7 +792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="b">
@@ -829,17 +833,17 @@
         <v>1.803395001051521</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4186205535611799</v>
+        <v>0.5443459042329746</v>
       </c>
       <c r="Y4" t="n">
         <v>31</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.623343</t>
+          <t>2025-11-13T06:52:42.609620</t>
         </is>
       </c>
     </row>
@@ -866,7 +870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -880,7 +884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="b">
@@ -921,17 +925,17 @@
         <v>2.234315576844593</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5215089703802877</v>
+        <v>0.5939169255529118</v>
       </c>
       <c r="Y5" t="n">
         <v>119</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.624341</t>
+          <t>2025-11-13T06:52:42.609620</t>
         </is>
       </c>
     </row>
@@ -958,7 +962,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -972,7 +976,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="b">
@@ -1013,17 +1017,17 @@
         <v>2.322388759208431</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5939169255529118</v>
+        <v>0.4716931457088545</v>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.624341</t>
+          <t>2025-11-13T06:52:42.609620</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -1050,7 +1054,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1064,11 +1068,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1105,13 +1109,17 @@
         <v>1.654076123726956</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.571671760962744</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>26</v>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.624341</t>
+          <t>2025-11-13T06:52:42.609620</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1146,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1152,7 +1160,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="b">
@@ -1193,17 +1201,17 @@
         <v>2.046877489124725</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4716931457088545</v>
+        <v>0.5389569866079409</v>
       </c>
       <c r="Y8" t="n">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.624341</t>
+          <t>2025-11-13T06:52:42.610621</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1238,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1244,7 +1252,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="b">
@@ -1285,17 +1293,17 @@
         <v>1.837934537701638</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X9" t="n">
-        <v>0.571671760962744</v>
+        <v>0.4868788731020857</v>
       </c>
       <c r="Y9" t="n">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.625342</t>
+          <t>2025-11-13T06:52:42.610621</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1330,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1336,7 +1344,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="b">
@@ -1377,17 +1385,17 @@
         <v>2.309985792869786</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4698419149225322</v>
       </c>
       <c r="Y10" t="n">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.625342</t>
+          <t>2025-11-13T06:52:42.610621</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1422,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1428,7 +1436,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="b">
@@ -1469,17 +1477,13 @@
         <v>1.928785842623751</v>
       </c>
       <c r="W11" t="n">
-        <v>5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.4868788731020857</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.625342</t>
+          <t>2025-11-13T06:52:42.610621</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1506,7 +1510,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1520,11 +1524,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -1561,17 +1565,13 @@
         <v>1.573468939206438</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.4698419149225322</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.626339</t>
+          <t>2025-11-13T06:52:42.610621</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="b">
@@ -1653,13 +1653,17 @@
         <v>2.05194608426208</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.5470432238481544</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15</v>
+      </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.626339</t>
+          <t>2025-11-13T06:52:42.610621</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1686,7 +1690,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1700,11 +1704,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
@@ -1741,13 +1745,17 @@
         <v>2.033688812867878</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.5800836114326661</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>232</v>
+      </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.626339</t>
+          <t>2025-11-13T06:52:42.610621</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1782,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1788,7 +1796,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="b">
@@ -1832,14 +1840,14 @@
         <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5470432238481544</v>
+        <v>0.4609562516316058</v>
       </c>
       <c r="Y15" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.627337</t>
+          <t>2025-11-13T06:52:42.610621</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1866,7 +1874,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1880,11 +1888,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
@@ -1921,17 +1929,13 @@
         <v>1.911896050589188</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.5800836114326661</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>203</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.627337</t>
+          <t>2025-11-13T06:52:42.610621</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1962,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1972,7 +1976,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="b">
@@ -2013,17 +2017,17 @@
         <v>1.817842277538554</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>0.4609562516316058</v>
+        <v>0.5045465658763988</v>
       </c>
       <c r="Y17" t="n">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.627337</t>
+          <t>2025-11-13T06:52:42.611623</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -2050,7 +2054,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2064,11 +2068,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -2105,17 +2109,13 @@
         <v>1.748777674464573</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.5521570097233794</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.628337</t>
+          <t>2025-11-13T06:52:42.611623</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="b">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.628337</t>
+          <t>2025-11-13T06:52:42.611623</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="b">
@@ -2289,17 +2289,17 @@
         <v>2.179224466819925</v>
       </c>
       <c r="W20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>0.444853861892112</v>
+        <v>0.5712648583756185</v>
       </c>
       <c r="Y20" t="n">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.628337</t>
+          <t>2025-11-13T06:52:42.611623</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="b">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.629341</t>
+          <t>2025-11-13T06:52:42.611623</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2418,7 +2418,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2432,11 +2432,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -2473,17 +2473,13 @@
         <v>1.798402758453689</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.4971227507172453</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.629341</t>
+          <t>2025-11-13T06:52:42.611623</t>
         </is>
       </c>
     </row>
@@ -2510,7 +2506,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2524,7 +2520,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="b">
@@ -2565,17 +2561,17 @@
         <v>2.040142973060756</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0.4048631932862908</v>
+        <v>0.4971227507172453</v>
       </c>
       <c r="Y23" t="n">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.630340</t>
+          <t>2025-11-13T06:52:42.611623</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2602,7 +2598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2616,11 +2612,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -2657,13 +2653,17 @@
         <v>1.593242342363332</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.4048631932862908</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>22</v>
+      </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.631067</t>
+          <t>2025-11-13T06:52:42.611623</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2690,7 +2690,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2704,11 +2704,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -2745,17 +2745,13 @@
         <v>1.352527450267611</v>
       </c>
       <c r="W25" t="n">
-        <v>3</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.4744565533123486</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.631340</t>
+          <t>2025-11-13T06:52:42.611623</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -2782,7 +2778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -2796,11 +2792,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -2837,13 +2833,17 @@
         <v>1.959254243825986</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.4744565533123486</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>83</v>
+      </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.631340</t>
+          <t>2025-11-13T06:52:42.611623</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2870,7 +2870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2884,11 +2884,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -2925,17 +2925,13 @@
         <v>1.938866846591789</v>
       </c>
       <c r="W27" t="n">
-        <v>5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0.5153807769252718</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.632340</t>
+          <t>2025-11-13T06:52:42.611623</t>
         </is>
       </c>
     </row>
@@ -2952,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -2962,7 +2958,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -2976,11 +2972,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -3017,17 +3013,13 @@
         <v>1.891457596674842</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.497348430591891</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.633339</t>
+          <t>2025-11-13T06:52:42.612619</t>
         </is>
       </c>
     </row>
@@ -3044,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -3054,7 +3046,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -3068,11 +3060,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -3109,13 +3101,17 @@
         <v>1.994710526848182</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.5153807769252718</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>238</v>
+      </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.639353</t>
+          <t>2025-11-13T06:52:42.612619</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
@@ -3142,7 +3138,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -3156,11 +3152,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -3197,13 +3193,17 @@
         <v>1.612076570831702</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.497348430591891</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>180</v>
+      </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.640342</t>
+          <t>2025-11-13T06:52:42.612619</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -3244,7 +3244,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="b">
@@ -3285,7 +3285,7 @@
         <v>2.138998561913302</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X31" t="n">
         <v>0.4515883255430311</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.640342</t>
+          <t>2025-11-13T06:52:42.612619</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L32" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="b">
@@ -3377,17 +3377,17 @@
         <v>1.640133907892154</v>
       </c>
       <c r="W32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
-        <v>0.4856368296634629</v>
+        <v>0.4646405864041511</v>
       </c>
       <c r="Y32" t="n">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.641337</t>
+          <t>2025-11-13T06:52:42.612619</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L33" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="b">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.641337</t>
+          <t>2025-11-13T06:52:42.612619</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L34" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="b">
@@ -3561,17 +3561,17 @@
         <v>1.826617477483069</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.5878997883128378</v>
       </c>
       <c r="Y34" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.642345</t>
+          <t>2025-11-13T06:52:42.612619</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -3612,7 +3612,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L35" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="b">
@@ -3659,7 +3659,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.643337</t>
+          <t>2025-11-13T06:52:42.612619</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
@@ -3686,7 +3686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -3700,11 +3700,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -3741,13 +3741,17 @@
         <v>1.778499208294157</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.4636006949943728</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>23</v>
+      </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.643337</t>
+          <t>2025-11-13T06:52:42.612619</t>
         </is>
       </c>
     </row>
@@ -3774,7 +3778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -3788,7 +3792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L37" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="b">
@@ -3832,14 +3836,14 @@
         <v>4</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4636006949943728</v>
+        <v>0.5766988044532517</v>
       </c>
       <c r="Y37" t="n">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.644339</t>
+          <t>2025-11-13T06:52:42.612619</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3880,7 +3884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L38" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="b">
@@ -3921,17 +3925,13 @@
         <v>1.86755777956255</v>
       </c>
       <c r="W38" t="n">
-        <v>4</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.5766988044532517</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.644339</t>
+          <t>2025-11-13T06:52:42.613618</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>7</v>
@@ -3958,7 +3958,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -3972,11 +3972,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
@@ -4019,7 +4019,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.645342</t>
+          <t>2025-11-13T06:52:42.613618</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L40" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="b">
@@ -4101,13 +4101,17 @@
         <v>2.232703449477532</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.4161706652665431</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>229</v>
+      </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.645342</t>
+          <t>2025-11-13T06:52:42.613618</t>
         </is>
       </c>
     </row>
@@ -4124,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>7</v>
@@ -4134,7 +4138,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4148,11 +4152,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -4189,13 +4193,17 @@
         <v>1.867902967647811</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.4460370536483111</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>15</v>
+      </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.646342</t>
+          <t>2025-11-13T06:52:42.613618</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
@@ -4222,7 +4230,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4236,11 +4244,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -4277,17 +4285,13 @@
         <v>1.711909496144319</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.5960663167432091</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.646342</t>
+          <t>2025-11-13T06:52:42.613618</t>
         </is>
       </c>
     </row>
@@ -4304,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>7</v>
@@ -4314,7 +4318,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -4328,11 +4332,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -4369,13 +4373,17 @@
         <v>1.906876234757517</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.4127116700572048</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>49</v>
+      </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.646342</t>
+          <t>2025-11-13T06:52:42.613618</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4410,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -4416,7 +4424,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L44" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="b">
@@ -4457,17 +4465,17 @@
         <v>1.644528065423013</v>
       </c>
       <c r="W44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4161706652665431</v>
+        <v>0.444853861892112</v>
       </c>
       <c r="Y44" t="n">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.647336</t>
+          <t>2025-11-13T06:52:42.613618</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4502,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8936474604335363</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4508,7 +4516,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L45" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="b">
@@ -4549,17 +4557,17 @@
         <v>1.651329488904762</v>
       </c>
       <c r="W45" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X45" t="n">
-        <v>0.4460370536483111</v>
+        <v>0.5422299064876035</v>
       </c>
       <c r="Y45" t="n">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:44.647336</t>
+          <t>2025-11-13T06:52:42.613618</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4594,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4600,7 +4608,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="b">
@@ -4641,17 +4649,17 @@
         <v>2.70087547222259</v>
       </c>
       <c r="W46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4460370536483111</v>
+        <v>0.4588897784139171</v>
       </c>
       <c r="Y46" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.684906</t>
+          <t>2025-11-13T06:52:43.034011</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4686,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -4692,7 +4700,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="b">
@@ -4733,17 +4741,17 @@
         <v>1.625276499656459</v>
       </c>
       <c r="W47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X47" t="n">
-        <v>0.5789654700855298</v>
+        <v>0.5616240759128834</v>
       </c>
       <c r="Y47" t="n">
         <v>7</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.684906</t>
+          <t>2025-11-13T06:52:43.034011</t>
         </is>
       </c>
     </row>
@@ -4770,7 +4778,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4784,7 +4792,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="b">
@@ -4825,17 +4833,17 @@
         <v>1.888512740684026</v>
       </c>
       <c r="W48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X48" t="n">
-        <v>0.570601891093472</v>
+        <v>0.444853861892112</v>
       </c>
       <c r="Y48" t="n">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.684906</t>
+          <t>2025-11-13T06:52:43.034011</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4870,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4876,7 +4884,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L49" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="b">
@@ -4917,17 +4925,17 @@
         <v>1.575951432831394</v>
       </c>
       <c r="W49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X49" t="n">
-        <v>0.449858445829775</v>
+        <v>0.5422299064876035</v>
       </c>
       <c r="Y49" t="n">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.684906</t>
+          <t>2025-11-13T06:52:43.034011</t>
         </is>
       </c>
     </row>
@@ -4954,7 +4962,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -4968,7 +4976,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L50" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="b">
@@ -5009,7 +5017,7 @@
         <v>1.678778917511117</v>
       </c>
       <c r="W50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X50" t="n">
         <v>0.5995480970097884</v>
@@ -5019,7 +5027,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.684906</t>
+          <t>2025-11-13T06:52:43.034011</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5054,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -5060,7 +5068,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L51" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="b">
@@ -5101,7 +5109,7 @@
         <v>1.730949828540154</v>
       </c>
       <c r="W51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X51" t="n">
         <v>0.516137324287291</v>
@@ -5111,7 +5119,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.696510</t>
+          <t>2025-11-13T06:52:43.035011</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5146,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -5152,7 +5160,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="b">
@@ -5193,17 +5201,17 @@
         <v>2.470211820084005</v>
       </c>
       <c r="W52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X52" t="n">
-        <v>0.5424541179848884</v>
+        <v>0.5675420211814656</v>
       </c>
       <c r="Y52" t="n">
         <v>41</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.696510</t>
+          <t>2025-11-13T06:52:43.035011</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5238,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5244,7 +5252,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L53" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="b">
@@ -5295,7 +5303,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.696510</t>
+          <t>2025-11-13T06:52:43.035011</t>
         </is>
       </c>
     </row>
@@ -5322,7 +5330,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -5336,7 +5344,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="b">
@@ -5380,14 +5388,14 @@
         <v>3</v>
       </c>
       <c r="X54" t="n">
-        <v>0.4013904261062382</v>
+        <v>0.585663712517545</v>
       </c>
       <c r="Y54" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.697736</t>
+          <t>2025-11-13T06:52:43.035011</t>
         </is>
       </c>
     </row>
@@ -5414,7 +5422,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -5428,7 +5436,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L55" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="b">
@@ -5469,13 +5477,17 @@
         <v>2.089864703434122</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.519579995762217</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>31</v>
+      </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.698256</t>
+          <t>2025-11-13T06:52:43.035011</t>
         </is>
       </c>
     </row>
@@ -5492,7 +5504,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>7</v>
@@ -5502,7 +5514,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -5516,11 +5528,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
@@ -5557,17 +5569,13 @@
         <v>1.930621396397587</v>
       </c>
       <c r="W56" t="n">
-        <v>5</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0.4323257428189228</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.699278</t>
+          <t>2025-11-13T06:52:43.035011</t>
         </is>
       </c>
     </row>
@@ -5594,7 +5602,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -5608,7 +5616,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="b">
@@ -5649,17 +5657,17 @@
         <v>1.911379087493055</v>
       </c>
       <c r="W57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X57" t="n">
-        <v>0.4646405864041511</v>
+        <v>0.4323257428189228</v>
       </c>
       <c r="Y57" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.703281</t>
+          <t>2025-11-13T06:52:43.035011</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5694,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -5700,7 +5708,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L58" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="b">
@@ -5741,17 +5749,17 @@
         <v>1.898609511862491</v>
       </c>
       <c r="W58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X58" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.4646405864041511</v>
       </c>
       <c r="Y58" t="n">
         <v>232</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.703281</t>
+          <t>2025-11-13T06:52:43.035011</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5776,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>7</v>
@@ -5778,7 +5786,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -5792,11 +5800,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
@@ -5833,17 +5841,13 @@
         <v>1.895236590874932</v>
       </c>
       <c r="W59" t="n">
-        <v>2</v>
-      </c>
-      <c r="X59" t="n">
-        <v>0.4090454577821077</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.704281</t>
+          <t>2025-11-13T06:52:43.035011</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5874,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -5884,7 +5888,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L60" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="b">
@@ -5925,17 +5929,17 @@
         <v>2.541027095624261</v>
       </c>
       <c r="W60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X60" t="n">
-        <v>0.405083825348819</v>
+        <v>0.5389569866079409</v>
       </c>
       <c r="Y60" t="n">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.704281</t>
+          <t>2025-11-13T06:52:43.035011</t>
         </is>
       </c>
     </row>
@@ -5952,7 +5956,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>7</v>
@@ -5962,7 +5966,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5976,11 +5980,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="b">
         <v>1</v>
@@ -6017,17 +6021,13 @@
         <v>1.790537967456421</v>
       </c>
       <c r="W61" t="n">
-        <v>5</v>
-      </c>
-      <c r="X61" t="n">
-        <v>0.5144008398418366</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.704281</t>
+          <t>2025-11-13T06:52:43.035011</t>
         </is>
       </c>
     </row>
@@ -6054,7 +6054,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L62" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="b">
@@ -6112,14 +6112,14 @@
         <v>2</v>
       </c>
       <c r="X62" t="n">
-        <v>0.5989101021594682</v>
+        <v>0.5766988044532517</v>
       </c>
       <c r="Y62" t="n">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.705279</t>
+          <t>2025-11-13T06:52:43.036011</t>
         </is>
       </c>
     </row>
@@ -6146,7 +6146,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L63" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="b">
@@ -6201,17 +6201,17 @@
         <v>1.998339108593484</v>
       </c>
       <c r="W63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X63" t="n">
-        <v>0.5383790395385386</v>
+        <v>0.405083825348819</v>
       </c>
       <c r="Y63" t="n">
         <v>80</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.705279</t>
+          <t>2025-11-13T06:52:43.036011</t>
         </is>
       </c>
     </row>
@@ -6238,7 +6238,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L64" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="b">
@@ -6293,17 +6293,17 @@
         <v>1.639255076186158</v>
       </c>
       <c r="W64" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X64" t="n">
-        <v>0.5712648583756185</v>
+        <v>0.5144008398418366</v>
       </c>
       <c r="Y64" t="n">
         <v>166</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.706280</t>
+          <t>2025-11-13T06:52:43.036011</t>
         </is>
       </c>
     </row>
@@ -6330,7 +6330,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L65" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="b">
@@ -6385,17 +6385,17 @@
         <v>1.97012312130098</v>
       </c>
       <c r="W65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X65" t="n">
-        <v>0.4521658349660818</v>
+        <v>0.5144584938341676</v>
       </c>
       <c r="Y65" t="n">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.706280</t>
+          <t>2025-11-13T06:52:43.036011</t>
         </is>
       </c>
     </row>
@@ -6422,7 +6422,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="b">
@@ -6477,17 +6477,17 @@
         <v>2.923450582907786</v>
       </c>
       <c r="W66" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X66" t="n">
-        <v>0.5153807769252718</v>
+        <v>0.4789382933618944</v>
       </c>
       <c r="Y66" t="n">
         <v>154</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.707280</t>
+          <t>2025-11-13T06:52:43.036011</t>
         </is>
       </c>
     </row>
@@ -6514,7 +6514,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L67" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="b">
@@ -6569,17 +6569,17 @@
         <v>2.061123711387564</v>
       </c>
       <c r="W67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X67" t="n">
-        <v>0.497348430591891</v>
+        <v>0.5712648583756185</v>
       </c>
       <c r="Y67" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.707280</t>
+          <t>2025-11-13T06:52:43.036011</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -6620,7 +6620,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="b">
@@ -6661,17 +6661,17 @@
         <v>2.026462434890598</v>
       </c>
       <c r="W68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X68" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.4521658349660818</v>
       </c>
       <c r="Y68" t="n">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.708278</t>
+          <t>2025-11-13T06:52:43.036011</t>
         </is>
       </c>
     </row>
@@ -6698,7 +6698,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L69" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="b">
@@ -6753,17 +6753,17 @@
         <v>2.819292856187221</v>
       </c>
       <c r="W69" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X69" t="n">
-        <v>0.4484319876554852</v>
+        <v>0.4633844010312556</v>
       </c>
       <c r="Y69" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.716468</t>
+          <t>2025-11-13T06:52:43.037038</t>
         </is>
       </c>
     </row>
@@ -6780,7 +6780,7 @@
         <v>2</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>7</v>
@@ -6790,7 +6790,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -6804,11 +6804,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="b">
         <v>1</v>
@@ -6845,17 +6845,13 @@
         <v>1.866028838004431</v>
       </c>
       <c r="W70" t="n">
-        <v>3</v>
-      </c>
-      <c r="X70" t="n">
-        <v>0.4544264498769271</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.771214</t>
+          <t>2025-11-13T06:52:43.037364</t>
         </is>
       </c>
     </row>
@@ -6882,7 +6878,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -6896,7 +6892,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L71" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="b">
@@ -6937,17 +6933,17 @@
         <v>2.251734167574515</v>
       </c>
       <c r="W71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X71" t="n">
-        <v>0.561900209227943</v>
+        <v>0.5860033669621664</v>
       </c>
       <c r="Y71" t="n">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.771214</t>
+          <t>2025-11-13T06:52:43.037364</t>
         </is>
       </c>
     </row>
@@ -6974,7 +6970,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -6988,7 +6984,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L72" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="b">
@@ -7029,7 +7025,7 @@
         <v>2.335352757072452</v>
       </c>
       <c r="W72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X72" t="n">
         <v>0.4557742705184364</v>
@@ -7039,7 +7035,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.771214</t>
+          <t>2025-11-13T06:52:43.037364</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7062,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -7080,7 +7076,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L73" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="b">
@@ -7121,17 +7117,17 @@
         <v>1.744990581515918</v>
       </c>
       <c r="W73" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X73" t="n">
-        <v>0.5906143694047906</v>
+        <v>0.4484319876554852</v>
       </c>
       <c r="Y73" t="n">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.771214</t>
+          <t>2025-11-13T06:52:43.037955</t>
         </is>
       </c>
     </row>
@@ -7158,7 +7154,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -7172,7 +7168,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L74" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="b">
@@ -7213,17 +7209,17 @@
         <v>1.975659737709924</v>
       </c>
       <c r="W74" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X74" t="n">
-        <v>0.4381822062300692</v>
+        <v>0.4705137712668338</v>
       </c>
       <c r="Y74" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:45.771214</t>
+          <t>2025-11-13T06:52:43.037955</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7246,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H75" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -7264,7 +7260,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="b">
@@ -7305,17 +7301,17 @@
         <v>1.96217666044828</v>
       </c>
       <c r="W75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X75" t="n">
-        <v>0.4588897784139171</v>
+        <v>0.4460370536483111</v>
       </c>
       <c r="Y75" t="n">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.611466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -7342,7 +7338,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H76" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -7356,7 +7352,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L76" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="b">
@@ -7397,17 +7393,17 @@
         <v>2.127223458367889</v>
       </c>
       <c r="W76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X76" t="n">
-        <v>0.5616240759128834</v>
+        <v>0.5135400655639983</v>
       </c>
       <c r="Y76" t="n">
         <v>95</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.611466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -7434,7 +7430,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H77" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -7448,7 +7444,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L77" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="b">
@@ -7489,7 +7485,7 @@
         <v>2.065490897445589</v>
       </c>
       <c r="W77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X77" t="n">
         <v>0.444853861892112</v>
@@ -7499,7 +7495,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.611466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -7526,7 +7522,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H78" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -7540,7 +7536,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L78" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="b">
@@ -7591,7 +7587,7 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.612466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -7618,7 +7614,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H79" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -7632,7 +7628,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L79" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="b">
@@ -7683,7 +7679,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.612466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -7710,7 +7706,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -7724,7 +7720,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="b">
@@ -7775,7 +7771,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.612466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7798,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -7816,7 +7812,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L81" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="b">
@@ -7857,17 +7853,17 @@
         <v>1.758995504745408</v>
       </c>
       <c r="W81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X81" t="n">
-        <v>0.5881046528979208</v>
+        <v>0.5424541179848884</v>
       </c>
       <c r="Y81" t="n">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.612466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -7894,7 +7890,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H82" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -7908,7 +7904,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L82" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="b">
@@ -7959,7 +7955,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.612466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7982,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -8000,7 +7996,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L83" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="b">
@@ -8041,17 +8037,17 @@
         <v>2.38246441112088</v>
       </c>
       <c r="W83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X83" t="n">
-        <v>0.585663712517545</v>
+        <v>0.4013904261062382</v>
       </c>
       <c r="Y83" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.612466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -8078,7 +8074,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -8092,7 +8088,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L84" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="b">
@@ -8143,7 +8139,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.613466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -8170,7 +8166,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -8184,7 +8180,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L85" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="b">
@@ -8235,7 +8231,7 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.613466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -8262,7 +8258,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -8276,7 +8272,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="b">
@@ -8317,7 +8313,7 @@
         <v>1.914143979237367</v>
       </c>
       <c r="W86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X86" t="n">
         <v>0.4646405864041511</v>
@@ -8327,7 +8323,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.613466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -8344,7 +8340,7 @@
         <v>3</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
@@ -8354,7 +8350,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H87" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -8368,11 +8364,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9852281360342515</v>
+        <v>0.01477186396574848</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="b">
         <v>1</v>
@@ -8409,13 +8405,17 @@
         <v>3.33004649724527</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
-      </c>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.5389569866079409</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>214</v>
+      </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.613466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -8442,7 +8442,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -8456,7 +8456,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="b">
@@ -8497,17 +8497,17 @@
         <v>2.140192018834097</v>
       </c>
       <c r="W88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X88" t="n">
-        <v>0.5389569866079409</v>
+        <v>0.5766988044532517</v>
       </c>
       <c r="Y88" t="n">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.613466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -8534,7 +8534,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H89" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="b">
@@ -8589,17 +8589,17 @@
         <v>1.889484437385861</v>
       </c>
       <c r="W89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X89" t="n">
-        <v>0.5766988044532517</v>
+        <v>0.405083825348819</v>
       </c>
       <c r="Y89" t="n">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.613466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -8626,7 +8626,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H90" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="b">
@@ -8681,17 +8681,17 @@
         <v>1.992836018344494</v>
       </c>
       <c r="W90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X90" t="n">
-        <v>0.405083825348819</v>
+        <v>0.5144008398418366</v>
       </c>
       <c r="Y90" t="n">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.614466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -8718,7 +8718,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H91" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="b">
@@ -8773,17 +8773,17 @@
         <v>2.590859871159036</v>
       </c>
       <c r="W91" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X91" t="n">
-        <v>0.5144008398418366</v>
+        <v>0.5144584938341676</v>
       </c>
       <c r="Y91" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.614466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -8810,7 +8810,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H92" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L92" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="b">
@@ -8865,17 +8865,17 @@
         <v>1.791676977912986</v>
       </c>
       <c r="W92" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X92" t="n">
-        <v>0.5144584938341676</v>
+        <v>0.4789382933618944</v>
       </c>
       <c r="Y92" t="n">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.614466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -8902,7 +8902,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H93" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="b">
@@ -8957,17 +8957,17 @@
         <v>2.266515143809492</v>
       </c>
       <c r="W93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X93" t="n">
-        <v>0.4789382933618944</v>
+        <v>0.5712648583756185</v>
       </c>
       <c r="Y93" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.614466</t>
+          <t>2025-11-13T06:52:43.455074</t>
         </is>
       </c>
     </row>
@@ -8994,7 +8994,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H94" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L94" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="b">
@@ -9049,17 +9049,17 @@
         <v>1.900635333699646</v>
       </c>
       <c r="W94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X94" t="n">
-        <v>0.5712648583756185</v>
+        <v>0.4521658349660818</v>
       </c>
       <c r="Y94" t="n">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.614466</t>
+          <t>2025-11-13T06:52:43.468867</t>
         </is>
       </c>
     </row>
@@ -9086,7 +9086,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H95" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L95" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="b">
@@ -9141,17 +9141,17 @@
         <v>1.711272511238302</v>
       </c>
       <c r="W95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X95" t="n">
-        <v>0.4521658349660818</v>
+        <v>0.4633844010312556</v>
       </c>
       <c r="Y95" t="n">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.614466</t>
+          <t>2025-11-13T06:52:43.468867</t>
         </is>
       </c>
     </row>
@@ -9178,7 +9178,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H96" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="b">
@@ -9233,17 +9233,17 @@
         <v>2.561267032525648</v>
       </c>
       <c r="W96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X96" t="n">
-        <v>0.4633844010312556</v>
+        <v>0.5860033669621664</v>
       </c>
       <c r="Y96" t="n">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.615466</t>
+          <t>2025-11-13T06:52:43.468867</t>
         </is>
       </c>
     </row>
@@ -9270,7 +9270,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H97" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L97" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="b">
@@ -9325,17 +9325,17 @@
         <v>2.214065652338276</v>
       </c>
       <c r="W97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X97" t="n">
-        <v>0.5860033669621664</v>
+        <v>0.5045465658763988</v>
       </c>
       <c r="Y97" t="n">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.615466</t>
+          <t>2025-11-13T06:52:43.468867</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H98" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="b">
@@ -9417,17 +9417,17 @@
         <v>1.578089462306014</v>
       </c>
       <c r="W98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X98" t="n">
-        <v>0.5045465658763988</v>
+        <v>0.4484319876554852</v>
       </c>
       <c r="Y98" t="n">
         <v>129</v>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.615466</t>
+          <t>2025-11-13T06:52:43.469374</t>
         </is>
       </c>
     </row>
@@ -9454,7 +9454,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H99" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L99" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="b">
@@ -9509,17 +9509,17 @@
         <v>2.854787520397721</v>
       </c>
       <c r="W99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X99" t="n">
-        <v>0.4484319876554852</v>
+        <v>0.4544264498769271</v>
       </c>
       <c r="Y99" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.615466</t>
+          <t>2025-11-13T06:52:43.469465</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H100" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L100" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="b">
@@ -9601,17 +9601,17 @@
         <v>2.457965885458756</v>
       </c>
       <c r="W100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X100" t="n">
-        <v>0.4544264498769271</v>
+        <v>0.561900209227943</v>
       </c>
       <c r="Y100" t="n">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.618473</t>
+          <t>2025-11-13T06:52:43.469465</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H101" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L101" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="b">
@@ -9693,17 +9693,17 @@
         <v>1.984717865097859</v>
       </c>
       <c r="W101" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X101" t="n">
-        <v>0.5829919351087561</v>
+        <v>0.4557742705184364</v>
       </c>
       <c r="Y101" t="n">
         <v>111</v>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.618473</t>
+          <t>2025-11-13T06:52:43.469975</t>
         </is>
       </c>
     </row>
@@ -9730,7 +9730,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H102" t="n">
-        <v>0.8631205685666311</v>
+        <v>1</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L102" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="b">
@@ -9785,17 +9785,17 @@
         <v>2.435118605829143</v>
       </c>
       <c r="W102" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X102" t="n">
-        <v>0.4557742705184364</v>
+        <v>0.4150692512012257</v>
       </c>
       <c r="Y102" t="n">
         <v>26</v>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:47.618473</t>
+          <t>2025-11-13T06:52:43.471290</t>
         </is>
       </c>
     </row>
@@ -9822,7 +9822,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H103" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="b">
@@ -9877,17 +9877,17 @@
         <v>1.872684301222326</v>
       </c>
       <c r="W103" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="X103" t="n">
-        <v>0.501762815367752</v>
+        <v>0.4543085831639484</v>
       </c>
       <c r="Y103" t="n">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:48.329146</t>
+          <t>2025-11-13T06:52:44.373026</t>
         </is>
       </c>
     </row>
@@ -9914,7 +9914,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L104" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="b">
@@ -9969,17 +9969,17 @@
         <v>2.894769969471886</v>
       </c>
       <c r="W104" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="X104" t="n">
-        <v>0.4512413887188916</v>
+        <v>0.4789382933618944</v>
       </c>
       <c r="Y104" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:48.329146</t>
+          <t>2025-11-13T06:52:44.373026</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9996,7 @@
         <v>4</v>
       </c>
       <c r="D105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>7</v>
@@ -10006,7 +10006,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -10020,11 +10020,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L105" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105" t="b">
         <v>1</v>
@@ -10061,13 +10061,17 @@
         <v>2.330391793602711</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
-      </c>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0.5488085285998231</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>166</v>
+      </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:48.329146</t>
+          <t>2025-11-13T06:52:44.373026</t>
         </is>
       </c>
     </row>
@@ -10084,7 +10088,7 @@
         <v>4</v>
       </c>
       <c r="D106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -10094,7 +10098,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H106" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -10108,11 +10112,11 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L106" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.1368794314333689</v>
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106" t="b">
         <v>1</v>
@@ -10149,13 +10153,17 @@
         <v>2.082021857441931</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
-      </c>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.5939073734228317</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>43</v>
+      </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:48.329146</t>
+          <t>2025-11-13T06:52:44.374179</t>
         </is>
       </c>
     </row>
@@ -10182,7 +10190,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H107" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -10196,7 +10204,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L107" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M107" t="inlineStr"/>
       <c r="N107" t="b">
@@ -10240,14 +10248,14 @@
         <v>12</v>
       </c>
       <c r="X107" t="n">
-        <v>0.4323257428189228</v>
+        <v>0.5684046150023963</v>
       </c>
       <c r="Y107" t="n">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:48.329146</t>
+          <t>2025-11-13T06:52:44.374179</t>
         </is>
       </c>
     </row>
@@ -10274,7 +10282,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H108" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -10288,7 +10296,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L108" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="b">
@@ -10329,17 +10337,17 @@
         <v>2.31173479386464</v>
       </c>
       <c r="W108" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="X108" t="n">
-        <v>0.4141881833999855</v>
+        <v>0.425412102530377</v>
       </c>
       <c r="Y108" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:48.329146</t>
+          <t>2025-11-13T06:52:44.374179</t>
         </is>
       </c>
     </row>
@@ -10366,7 +10374,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -10380,7 +10388,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L109" t="n">
-        <v>0.5916727785823274</v>
+        <v>0.4083272214176726</v>
       </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="b">
@@ -10421,17 +10429,17 @@
         <v>1.696862696367663</v>
       </c>
       <c r="W109" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X109" t="n">
-        <v>0.510552993367098</v>
+        <v>0.493119603626492</v>
       </c>
       <c r="Y109" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:48.329146</t>
+          <t>2025-11-13T06:52:44.374179</t>
         </is>
       </c>
     </row>
@@ -10458,7 +10466,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H110" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -10472,7 +10480,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="b">
@@ -10513,17 +10521,17 @@
         <v>3.011170816582051</v>
       </c>
       <c r="W110" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="X110" t="n">
-        <v>0.577323429790132</v>
+        <v>0.4163188360800481</v>
       </c>
       <c r="Y110" t="n">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:48.329146</t>
+          <t>2025-11-13T06:52:44.374179</t>
         </is>
       </c>
     </row>
@@ -10550,7 +10558,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -10564,7 +10572,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="b">
@@ -10605,17 +10613,17 @@
         <v>2.700650571686993</v>
       </c>
       <c r="W111" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X111" t="n">
-        <v>0.5157729791015118</v>
+        <v>0.5947327673510634</v>
       </c>
       <c r="Y111" t="n">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:48.329146</t>
+          <t>2025-11-13T06:52:44.375029</t>
         </is>
       </c>
     </row>
@@ -10642,7 +10650,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="H112" t="n">
-        <v>0.5916727785823274</v>
+        <v>1</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -10656,7 +10664,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="b">
@@ -10697,17 +10705,17 @@
         <v>2.699512013925247</v>
       </c>
       <c r="W112" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="X112" t="n">
-        <v>0.493119603626492</v>
+        <v>0.436866734866274</v>
       </c>
       <c r="Y112" t="n">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-11-12T07:23:48.329146</t>
+          <t>2025-11-13T06:52:44.375029</t>
         </is>
       </c>
     </row>
